--- a/D2_SPREAD.xlsx
+++ b/D2_SPREAD.xlsx
@@ -5455,7 +5455,7 @@
         <v>0.0</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
       <c r="BX12" t="n">
         <v>0.0</v>
@@ -7785,7 +7785,7 @@
         <v>41.0</v>
       </c>
       <c r="BW22" t="n">
-        <v>0.0</v>
+        <v>41.0</v>
       </c>
       <c r="BX22" t="n">
         <v>0.0</v>
@@ -8717,7 +8717,7 @@
         <v>0.0</v>
       </c>
       <c r="BW26" t="n">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="BX26" t="n">
         <v>0.0</v>
@@ -10115,7 +10115,7 @@
         <v>0.0</v>
       </c>
       <c r="BW32" t="n">
-        <v>0.0</v>
+        <v>54.0</v>
       </c>
       <c r="BX32" t="n">
         <v>1.0</v>
@@ -14542,7 +14542,7 @@
         <v>45.0</v>
       </c>
       <c r="BW51" t="n">
-        <v>0.0</v>
+        <v>45.0</v>
       </c>
       <c r="BX51" t="n">
         <v>1.0</v>
@@ -15008,7 +15008,7 @@
         <v>28.0</v>
       </c>
       <c r="BW53" t="n">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="BX53" t="n">
         <v>1.0</v>
@@ -15241,7 +15241,7 @@
         <v>0.0</v>
       </c>
       <c r="BW54" t="n">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="BX54" t="n">
         <v>1.0</v>
@@ -17935,13 +17935,13 @@
         <v>4.0</v>
       </c>
       <c r="AO66" t="n">
-        <v>0.0</v>
+        <v>1.7</v>
       </c>
       <c r="AP66" t="n">
-        <v>0.0</v>
+        <v>0.8</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.0</v>
+        <v>271.0</v>
       </c>
       <c r="AR66" t="n">
         <v>40.0</v>
@@ -17959,7 +17959,7 @@
         <v>48.0</v>
       </c>
       <c r="AW66" t="n">
-        <v>0.0</v>
+        <v>3252.0</v>
       </c>
       <c r="AX66" t="n">
         <v>1920.0</v>
@@ -17977,10 +17977,10 @@
         <v>0.0</v>
       </c>
       <c r="BC66" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD66" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="BE66" t="n">
         <v>0.0</v>
@@ -17998,52 +17998,52 @@
         <v>0.0</v>
       </c>
       <c r="BJ66" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="BK66" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="BL66" t="n">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="BM66" t="n">
         <v>0.0</v>
       </c>
       <c r="BN66" t="n">
-        <v>0.0</v>
+        <v>81.0</v>
       </c>
       <c r="BO66" t="n">
         <v>0.0</v>
       </c>
       <c r="BP66" t="n">
-        <v>0.0</v>
+        <v>206.0</v>
       </c>
       <c r="BQ66" t="n">
         <v>0.0</v>
       </c>
       <c r="BR66" t="n">
-        <v>0.0</v>
+        <v>81.0</v>
       </c>
       <c r="BS66" t="n">
-        <v>0.0</v>
+        <v>206.0</v>
       </c>
       <c r="BT66" t="n">
-        <v>0.0</v>
+        <v>287.0</v>
       </c>
       <c r="BU66" t="n">
-        <v>0.0</v>
+        <v>81.0</v>
       </c>
       <c r="BV66" t="n">
-        <v>0.0</v>
+        <v>51.0</v>
       </c>
       <c r="BW66" t="n">
-        <v>0.0</v>
+        <v>51.0</v>
       </c>
       <c r="BX66" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BY66" t="n">
-        <v>116.0</v>
+        <v>126.0</v>
       </c>
     </row>
     <row r="67">
@@ -18270,7 +18270,7 @@
         <v>18.0</v>
       </c>
       <c r="BW67" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="BX67" t="n">
         <v>0.0</v>
@@ -18736,7 +18736,7 @@
         <v>21.0</v>
       </c>
       <c r="BW69" t="n">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="BX69" t="n">
         <v>1.0</v>
@@ -18969,7 +18969,7 @@
         <v>0.0</v>
       </c>
       <c r="BW70" t="n">
-        <v>0.0</v>
+        <v>56.0</v>
       </c>
       <c r="BX70" t="n">
         <v>0.0</v>
@@ -21299,7 +21299,7 @@
         <v>0.0</v>
       </c>
       <c r="BW80" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="BX80" t="n">
         <v>0.0</v>
@@ -21998,7 +21998,7 @@
         <v>50.0</v>
       </c>
       <c r="BW83" t="n">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="BX83" t="n">
         <v>0.0</v>
@@ -22930,7 +22930,7 @@
         <v>90.0</v>
       </c>
       <c r="BW87" t="n">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
       <c r="BX87" t="n">
         <v>0.0</v>
@@ -24328,7 +24328,7 @@
         <v>28.0</v>
       </c>
       <c r="BW93" t="n">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="BX93" t="n">
         <v>1.0</v>
@@ -25959,7 +25959,7 @@
         <v>0.0</v>
       </c>
       <c r="BW100" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="BX100" t="n">
         <v>1.0</v>
@@ -27954,13 +27954,13 @@
         <v>3.0</v>
       </c>
       <c r="AO109" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="AP109" t="n">
-        <v>0.0</v>
+        <v>1.2</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.0</v>
+        <v>173.0</v>
       </c>
       <c r="AR109" t="n">
         <v>50.0</v>
@@ -27978,16 +27978,16 @@
         <v>15.0</v>
       </c>
       <c r="AW109" t="n">
-        <v>0.0</v>
+        <v>865.0</v>
       </c>
       <c r="AX109" t="n">
         <v>750.0</v>
       </c>
       <c r="AY109" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AZ109" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BA109" t="n">
         <v>0.0</v>
@@ -27996,7 +27996,7 @@
         <v>0.0</v>
       </c>
       <c r="BC109" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="BD109" t="n">
         <v>0.0</v>
@@ -28008,55 +28008,55 @@
         <v>0.0</v>
       </c>
       <c r="BG109" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="BH109" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="BI109" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="BJ109" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="BK109" t="n">
         <v>0.0</v>
       </c>
       <c r="BL109" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="BM109" t="n">
-        <v>0.0</v>
+        <v>600.0</v>
       </c>
       <c r="BN109" t="n">
-        <v>0.0</v>
+        <v>217.0</v>
       </c>
       <c r="BO109" t="n">
         <v>0.0</v>
       </c>
       <c r="BP109" t="n">
-        <v>0.0</v>
+        <v>47.0</v>
       </c>
       <c r="BQ109" t="n">
         <v>0.0</v>
       </c>
       <c r="BR109" t="n">
-        <v>0.0</v>
+        <v>217.0</v>
       </c>
       <c r="BS109" t="n">
-        <v>0.0</v>
+        <v>47.0</v>
       </c>
       <c r="BT109" t="n">
-        <v>0.0</v>
+        <v>264.0</v>
       </c>
       <c r="BU109" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="BV109" t="n">
-        <v>0.0</v>
+        <v>47.0</v>
       </c>
       <c r="BW109" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="BX109" t="n">
         <v>0.0</v>
@@ -29454,7 +29454,7 @@
         <v>64.0</v>
       </c>
       <c r="BW115" t="n">
-        <v>0.0</v>
+        <v>64.0</v>
       </c>
       <c r="BX115" t="n">
         <v>0.0</v>
@@ -30153,7 +30153,7 @@
         <v>63.0</v>
       </c>
       <c r="BW118" t="n">
-        <v>0.0</v>
+        <v>63.0</v>
       </c>
       <c r="BX118" t="n">
         <v>0.0</v>
@@ -30284,13 +30284,13 @@
         <v>3.0</v>
       </c>
       <c r="AO119" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AP119" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AQ119" t="n">
-        <v>0.0</v>
+        <v>113.0</v>
       </c>
       <c r="AR119" t="n">
         <v>30.0</v>
@@ -30308,7 +30308,7 @@
         <v>33.0</v>
       </c>
       <c r="AW119" t="n">
-        <v>0.0</v>
+        <v>1243.0</v>
       </c>
       <c r="AX119" t="n">
         <v>990.0</v>
@@ -30326,10 +30326,10 @@
         <v>0.0</v>
       </c>
       <c r="BC119" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD119" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="BE119" t="n">
         <v>0.0</v>
@@ -30347,46 +30347,46 @@
         <v>0.0</v>
       </c>
       <c r="BJ119" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="BK119" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="BL119" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="BM119" t="n">
         <v>0.0</v>
       </c>
       <c r="BN119" t="n">
-        <v>0.0</v>
+        <v>89.0</v>
       </c>
       <c r="BO119" t="n">
         <v>0.0</v>
       </c>
       <c r="BP119" t="n">
-        <v>0.0</v>
+        <v>132.0</v>
       </c>
       <c r="BQ119" t="n">
         <v>0.0</v>
       </c>
       <c r="BR119" t="n">
-        <v>0.0</v>
+        <v>89.0</v>
       </c>
       <c r="BS119" t="n">
-        <v>0.0</v>
+        <v>132.0</v>
       </c>
       <c r="BT119" t="n">
-        <v>0.0</v>
+        <v>221.0</v>
       </c>
       <c r="BU119" t="n">
-        <v>0.0</v>
+        <v>89.0</v>
       </c>
       <c r="BV119" t="n">
-        <v>0.0</v>
+        <v>55.0</v>
       </c>
       <c r="BW119" t="n">
-        <v>0.0</v>
+        <v>55.0</v>
       </c>
       <c r="BX119" t="n">
         <v>0.0</v>
@@ -30619,7 +30619,7 @@
         <v>33.0</v>
       </c>
       <c r="BW120" t="n">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="BX120" t="n">
         <v>0.0</v>
@@ -33881,7 +33881,7 @@
         <v>38.0</v>
       </c>
       <c r="BW134" t="n">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
       <c r="BX134" t="n">
         <v>0.0</v>
@@ -34580,7 +34580,7 @@
         <v>0.0</v>
       </c>
       <c r="BW137" t="n">
-        <v>0.0</v>
+        <v>87.0</v>
       </c>
       <c r="BX137" t="n">
         <v>0.0</v>
@@ -35745,7 +35745,7 @@
         <v>0.0</v>
       </c>
       <c r="BW142" t="n">
-        <v>0.0</v>
+        <v>45.0</v>
       </c>
       <c r="BX142" t="n">
         <v>0.0</v>
@@ -36211,7 +36211,7 @@
         <v>0.0</v>
       </c>
       <c r="BW144" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="BX144" t="n">
         <v>0.0</v>
@@ -39240,7 +39240,7 @@
         <v>0.0</v>
       </c>
       <c r="BW157" t="n">
-        <v>0.0</v>
+        <v>67.0</v>
       </c>
       <c r="BX157" t="n">
         <v>0.0</v>
@@ -41803,7 +41803,7 @@
         <v>76.0</v>
       </c>
       <c r="BW168" t="n">
-        <v>0.0</v>
+        <v>76.0</v>
       </c>
       <c r="BX168" t="n">
         <v>0.0</v>
@@ -49725,7 +49725,7 @@
         <v>0.0</v>
       </c>
       <c r="BW202" t="n">
-        <v>0.0</v>
+        <v>51.0</v>
       </c>
       <c r="BX202" t="n">
         <v>0.0</v>
@@ -50657,7 +50657,7 @@
         <v>0.0</v>
       </c>
       <c r="BW206" t="n">
-        <v>0.0</v>
+        <v>46.0</v>
       </c>
       <c r="BX206" t="n">
         <v>0.0</v>
@@ -51589,7 +51589,7 @@
         <v>0.0</v>
       </c>
       <c r="BW210" t="n">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="BX210" t="n">
         <v>0.0</v>
@@ -51822,7 +51822,7 @@
         <v>0.0</v>
       </c>
       <c r="BW211" t="n">
-        <v>0.0</v>
+        <v>49.0</v>
       </c>
       <c r="BX211" t="n">
         <v>0.0</v>
@@ -56482,7 +56482,7 @@
         <v>47.0</v>
       </c>
       <c r="BW231" t="n">
-        <v>0.0</v>
+        <v>47.0</v>
       </c>
       <c r="BX231" t="n">
         <v>0.0</v>
@@ -57181,7 +57181,7 @@
         <v>79.0</v>
       </c>
       <c r="BW234" t="n">
-        <v>0.0</v>
+        <v>79.0</v>
       </c>
       <c r="BX234" t="n">
         <v>0.0</v>
@@ -57414,7 +57414,7 @@
         <v>29.0</v>
       </c>
       <c r="BW235" t="n">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="BX235" t="n">
         <v>1.0</v>
@@ -58113,7 +58113,7 @@
         <v>40.0</v>
       </c>
       <c r="BW238" t="n">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="BX238" t="n">
         <v>0.0</v>
@@ -61608,7 +61608,7 @@
         <v>15.0</v>
       </c>
       <c r="BW253" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="BX253" t="n">
         <v>0.0</v>
@@ -63239,7 +63239,7 @@
         <v>0.0</v>
       </c>
       <c r="BW260" t="n">
-        <v>0.0</v>
+        <v>44.0</v>
       </c>
       <c r="BX260" t="n">
         <v>0.0</v>
@@ -63472,7 +63472,7 @@
         <v>0.0</v>
       </c>
       <c r="BW261" t="n">
-        <v>0.0</v>
+        <v>46.0</v>
       </c>
       <c r="BX261" t="n">
         <v>2.0</v>
@@ -65336,7 +65336,7 @@
         <v>59.0</v>
       </c>
       <c r="BW269" t="n">
-        <v>0.0</v>
+        <v>59.0</v>
       </c>
       <c r="BX269" t="n">
         <v>0.0</v>
@@ -65802,7 +65802,7 @@
         <v>0.0</v>
       </c>
       <c r="BW271" t="n">
-        <v>0.0</v>
+        <v>58.0</v>
       </c>
       <c r="BX271" t="n">
         <v>1.0</v>
@@ -66035,7 +66035,7 @@
         <v>57.0</v>
       </c>
       <c r="BW272" t="n">
-        <v>0.0</v>
+        <v>57.0</v>
       </c>
       <c r="BX272" t="n">
         <v>0.0</v>
@@ -66268,7 +66268,7 @@
         <v>63.0</v>
       </c>
       <c r="BW273" t="n">
-        <v>0.0</v>
+        <v>63.0</v>
       </c>
       <c r="BX273" t="n">
         <v>0.0</v>
@@ -66501,7 +66501,7 @@
         <v>33.0</v>
       </c>
       <c r="BW274" t="n">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="BX274" t="n">
         <v>0.0</v>
@@ -66734,7 +66734,7 @@
         <v>0.0</v>
       </c>
       <c r="BW275" t="n">
-        <v>0.0</v>
+        <v>45.0</v>
       </c>
       <c r="BX275" t="n">
         <v>0.0</v>
@@ -67666,7 +67666,7 @@
         <v>0.0</v>
       </c>
       <c r="BW279" t="n">
-        <v>0.0</v>
+        <v>57.0</v>
       </c>
       <c r="BX279" t="n">
         <v>0.0</v>
@@ -68132,7 +68132,7 @@
         <v>46.0</v>
       </c>
       <c r="BW281" t="n">
-        <v>0.0</v>
+        <v>46.0</v>
       </c>
       <c r="BX281" t="n">
         <v>0.0</v>
@@ -68831,7 +68831,7 @@
         <v>0.0</v>
       </c>
       <c r="BW284" t="n">
-        <v>0.0</v>
+        <v>59.0</v>
       </c>
       <c r="BX284" t="n">
         <v>1.0</v>
@@ -72093,7 +72093,7 @@
         <v>0.0</v>
       </c>
       <c r="BW298" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="BX298" t="n">
         <v>1.0</v>
@@ -72326,7 +72326,7 @@
         <v>0.0</v>
       </c>
       <c r="BW299" t="n">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="BX299" t="n">
         <v>0.0</v>
@@ -72792,7 +72792,7 @@
         <v>14.0</v>
       </c>
       <c r="BW301" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="BX301" t="n">
         <v>0.0</v>

--- a/D2_SPREAD.xlsx
+++ b/D2_SPREAD.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="321">
   <si>
     <t>Div</t>
   </si>
@@ -413,6 +413,33 @@
     <t>54</t>
   </si>
   <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
     <t>D2</t>
   </si>
   <si>
@@ -509,6 +536,9 @@
     <t>3-1</t>
   </si>
   <si>
+    <t>4-2</t>
+  </si>
+  <si>
     <t>3-2</t>
   </si>
   <si>
@@ -545,6 +575,12 @@
     <t>0-3</t>
   </si>
   <si>
+    <t>4-4</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
     <t>6-3</t>
   </si>
   <si>
@@ -596,9 +632,6 @@
     <t>8-2</t>
   </si>
   <si>
-    <t>4-2</t>
-  </si>
-  <si>
     <t>13-2</t>
   </si>
   <si>
@@ -620,9 +653,6 @@
     <t>1-6</t>
   </si>
   <si>
-    <t>4-4</t>
-  </si>
-  <si>
     <t>4-3</t>
   </si>
   <si>
@@ -659,6 +689,18 @@
     <t>2-5</t>
   </si>
   <si>
+    <t>6-0</t>
+  </si>
+  <si>
+    <t>8-4</t>
+  </si>
+  <si>
+    <t>3-8</t>
+  </si>
+  <si>
+    <t>7-7</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -827,6 +869,33 @@
     <t>2024-09-22-Regensburg-PreuÃŸen MÃ¼nster</t>
   </si>
   <si>
+    <t>2024-09-27-Greuther Furth-Fortuna Dusseldorf</t>
+  </si>
+  <si>
+    <t>2024-09-27-Ulm-Braunschweig</t>
+  </si>
+  <si>
+    <t>2024-09-28-Darmstadt-Magdeburg</t>
+  </si>
+  <si>
+    <t>2024-09-28-Hamburg-Paderborn</t>
+  </si>
+  <si>
+    <t>2024-09-28-Regensburg-Kaiserslautern</t>
+  </si>
+  <si>
+    <t>2024-09-28-PreuÃŸen MÃ¼nster-Schalke 04</t>
+  </si>
+  <si>
+    <t>2024-09-29-FC Koln-Karlsruhe</t>
+  </si>
+  <si>
+    <t>2024-09-29-Hannover-Nurnberg</t>
+  </si>
+  <si>
+    <t>2024-09-29-Hertha-Elversberg</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -894,6 +963,18 @@
   </si>
   <si>
     <t>Patrick Alt</t>
+  </si>
+  <si>
+    <t>Matthias Jöllenbeck</t>
+  </si>
+  <si>
+    <t>Florian Badstübner</t>
+  </si>
+  <si>
+    <t>Robin Braun</t>
+  </si>
+  <si>
+    <t>Nicolas Winter</t>
   </si>
 </sst>
 </file>
@@ -1193,16 +1274,16 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C2" t="n" s="2">
         <v>45506.0</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="F2" t="n">
         <v>1.0</v>
@@ -1211,7 +1292,7 @@
         <v>2.0</v>
       </c>
       <c r="H2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I2" t="n">
         <v>0.0</v>
@@ -1220,7 +1301,7 @@
         <v>2.0</v>
       </c>
       <c r="K2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L2" t="n">
         <v>2.41</v>
@@ -1232,10 +1313,10 @@
         <v>2.86</v>
       </c>
       <c r="O2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="P2" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Q2" t="n">
         <v>26.0</v>
@@ -1283,16 +1364,16 @@
         <v>25.0</v>
       </c>
       <c r="AF2" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="AG2" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH2" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AI2" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AJ2" t="n">
         <v>4.0</v>
@@ -1301,10 +1382,10 @@
         <v>0.0</v>
       </c>
       <c r="AL2" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="AM2" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="AN2" t="n">
         <v>3.0</v>
@@ -1435,16 +1516,16 @@
         <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C3" t="n" s="2">
         <v>45507.0</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="F3" t="n">
         <v>2.0</v>
@@ -1453,7 +1534,7 @@
         <v>0.0</v>
       </c>
       <c r="H3" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="I3" t="n">
         <v>2.0</v>
@@ -1462,7 +1543,7 @@
         <v>0.0</v>
       </c>
       <c r="K3" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="L3" t="n">
         <v>1.65</v>
@@ -1474,10 +1555,10 @@
         <v>5.07</v>
       </c>
       <c r="O3" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="P3" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="Q3" t="n">
         <v>16.0</v>
@@ -1525,16 +1606,16 @@
         <v>29.0</v>
       </c>
       <c r="AF3" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="AG3" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH3" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AI3" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AJ3" t="n">
         <v>1.0</v>
@@ -1543,10 +1624,10 @@
         <v>0.0</v>
       </c>
       <c r="AL3" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="AM3" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="AN3" t="n">
         <v>2.0</v>
@@ -1677,16 +1758,16 @@
         <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C4" t="n" s="2">
         <v>45507.0</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E4" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F4" t="n">
         <v>1.0</v>
@@ -1695,7 +1776,7 @@
         <v>2.0</v>
       </c>
       <c r="H4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I4" t="n">
         <v>0.0</v>
@@ -1704,7 +1785,7 @@
         <v>1.0</v>
       </c>
       <c r="K4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L4" t="n">
         <v>2.04</v>
@@ -1716,10 +1797,10 @@
         <v>3.46</v>
       </c>
       <c r="O4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="P4" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Q4" t="n">
         <v>10.0</v>
@@ -1767,16 +1848,16 @@
         <v>23.0</v>
       </c>
       <c r="AF4" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="AG4" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH4" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AI4" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AJ4" t="n">
         <v>3.0</v>
@@ -1785,10 +1866,10 @@
         <v>0.0</v>
       </c>
       <c r="AL4" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="AM4" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="AN4" t="n">
         <v>3.0</v>
@@ -1919,16 +2000,16 @@
         <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C5" t="n" s="2">
         <v>45507.0</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F5" t="n">
         <v>3.0</v>
@@ -1937,7 +2018,7 @@
         <v>2.0</v>
       </c>
       <c r="H5" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="I5" t="n">
         <v>1.0</v>
@@ -1946,7 +2027,7 @@
         <v>2.0</v>
       </c>
       <c r="K5" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L5" t="n">
         <v>1.96</v>
@@ -1958,10 +2039,10 @@
         <v>3.68</v>
       </c>
       <c r="O5" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="P5" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Q5" t="n">
         <v>15.0</v>
@@ -2009,16 +2090,16 @@
         <v>27.0</v>
       </c>
       <c r="AF5" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="AG5" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH5" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AI5" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AJ5" t="n">
         <v>6.0</v>
@@ -2027,10 +2108,10 @@
         <v>0.0</v>
       </c>
       <c r="AL5" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="AM5" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="AN5" t="n">
         <v>5.0</v>
@@ -2161,16 +2242,16 @@
         <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C6" t="n" s="2">
         <v>45507.0</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E6" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="F6" t="n">
         <v>0.0</v>
@@ -2179,7 +2260,7 @@
         <v>0.0</v>
       </c>
       <c r="H6" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="I6" t="n">
         <v>0.0</v>
@@ -2188,7 +2269,7 @@
         <v>0.0</v>
       </c>
       <c r="K6" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="L6" t="n">
         <v>2.0</v>
@@ -2200,10 +2281,10 @@
         <v>3.69</v>
       </c>
       <c r="O6" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="P6" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="Q6" t="n">
         <v>21.0</v>
@@ -2251,16 +2332,16 @@
         <v>19.0</v>
       </c>
       <c r="AF6" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="AG6" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AH6" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AI6" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AJ6" t="n">
         <v>5.0</v>
@@ -2269,10 +2350,10 @@
         <v>0.0</v>
       </c>
       <c r="AL6" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="AM6" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="AN6" t="n">
         <v>0.0</v>
@@ -2403,16 +2484,16 @@
         <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C7" t="n" s="2">
         <v>45507.0</v>
       </c>
       <c r="D7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E7" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="F7" t="n">
         <v>5.0</v>
@@ -2421,7 +2502,7 @@
         <v>1.0</v>
       </c>
       <c r="H7" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="I7" t="n">
         <v>2.0</v>
@@ -2430,7 +2511,7 @@
         <v>1.0</v>
       </c>
       <c r="K7" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="L7" t="n">
         <v>1.75</v>
@@ -2442,10 +2523,10 @@
         <v>4.65</v>
       </c>
       <c r="O7" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="P7" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="Q7" t="n">
         <v>14.0</v>
@@ -2493,16 +2574,16 @@
         <v>24.0</v>
       </c>
       <c r="AF7" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="AG7" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH7" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AI7" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AJ7" t="n">
         <v>4.0</v>
@@ -2511,10 +2592,10 @@
         <v>0.0</v>
       </c>
       <c r="AL7" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="AM7" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="AN7" t="n">
         <v>6.0</v>
@@ -2645,16 +2726,16 @@
         <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C8" t="n" s="2">
         <v>45508.0</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F8" t="n">
         <v>0.0</v>
@@ -2663,7 +2744,7 @@
         <v>2.0</v>
       </c>
       <c r="H8" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I8" t="n">
         <v>0.0</v>
@@ -2672,7 +2753,7 @@
         <v>0.0</v>
       </c>
       <c r="K8" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="L8" t="n">
         <v>2.79</v>
@@ -2684,10 +2765,10 @@
         <v>2.41</v>
       </c>
       <c r="O8" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="P8" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="Q8" t="n">
         <v>11.0</v>
@@ -2735,16 +2816,16 @@
         <v>23.0</v>
       </c>
       <c r="AF8" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="AG8" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH8" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AI8" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AJ8" t="n">
         <v>4.0</v>
@@ -2753,10 +2834,10 @@
         <v>1.0</v>
       </c>
       <c r="AL8" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="AM8" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="AN8" t="n">
         <v>2.0</v>
@@ -2887,16 +2968,16 @@
         <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C9" t="n" s="2">
         <v>45508.0</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E9" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="F9" t="n">
         <v>3.0</v>
@@ -2905,7 +2986,7 @@
         <v>1.0</v>
       </c>
       <c r="H9" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="I9" t="n">
         <v>1.0</v>
@@ -2914,7 +2995,7 @@
         <v>1.0</v>
       </c>
       <c r="K9" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="L9" t="n">
         <v>1.82</v>
@@ -2926,10 +3007,10 @@
         <v>4.11</v>
       </c>
       <c r="O9" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="P9" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="Q9" t="n">
         <v>22.0</v>
@@ -2977,16 +3058,16 @@
         <v>20.0</v>
       </c>
       <c r="AF9" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="AG9" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH9" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AI9" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AJ9" t="n">
         <v>3.0</v>
@@ -2995,10 +3076,10 @@
         <v>0.0</v>
       </c>
       <c r="AL9" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="AM9" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="AN9" t="n">
         <v>4.0</v>
@@ -3129,16 +3210,16 @@
         <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C10" t="n" s="2">
         <v>45508.0</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E10" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F10" t="n">
         <v>1.0</v>
@@ -3147,7 +3228,7 @@
         <v>2.0</v>
       </c>
       <c r="H10" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I10" t="n">
         <v>0.0</v>
@@ -3156,7 +3237,7 @@
         <v>0.0</v>
       </c>
       <c r="K10" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="L10" t="n">
         <v>2.92</v>
@@ -3168,10 +3249,10 @@
         <v>2.42</v>
       </c>
       <c r="O10" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="P10" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Q10" t="n">
         <v>12.0</v>
@@ -3219,16 +3300,16 @@
         <v>28.0</v>
       </c>
       <c r="AF10" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="AG10" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH10" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AI10" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AJ10" t="n">
         <v>5.0</v>
@@ -3237,10 +3318,10 @@
         <v>0.0</v>
       </c>
       <c r="AL10" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="AM10" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="AN10" t="n">
         <v>3.0</v>
@@ -3371,16 +3452,16 @@
         <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C11" t="n" s="2">
         <v>45513.0</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E11" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F11" t="n">
         <v>2.0</v>
@@ -3389,7 +3470,7 @@
         <v>2.0</v>
       </c>
       <c r="H11" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="I11" t="n">
         <v>1.0</v>
@@ -3398,7 +3479,7 @@
         <v>2.0</v>
       </c>
       <c r="K11" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L11" t="n">
         <v>2.19</v>
@@ -3410,10 +3491,10 @@
         <v>3.22</v>
       </c>
       <c r="O11" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="P11" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="Q11" t="n">
         <v>13.0</v>
@@ -3461,16 +3542,16 @@
         <v>24.0</v>
       </c>
       <c r="AF11" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="AG11" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH11" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AI11" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AJ11" t="n">
         <v>4.0</v>
@@ -3479,10 +3560,10 @@
         <v>0.0</v>
       </c>
       <c r="AL11" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="AM11" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="AN11" t="n">
         <v>4.0</v>
@@ -3613,16 +3694,16 @@
         <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C12" t="n" s="2">
         <v>45513.0</v>
       </c>
       <c r="D12" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E12" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F12" t="n">
         <v>1.0</v>
@@ -3631,7 +3712,7 @@
         <v>0.0</v>
       </c>
       <c r="H12" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="I12" t="n">
         <v>1.0</v>
@@ -3640,7 +3721,7 @@
         <v>0.0</v>
       </c>
       <c r="K12" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="L12" t="n">
         <v>2.59</v>
@@ -3652,10 +3733,10 @@
         <v>2.8</v>
       </c>
       <c r="O12" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="P12" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="Q12" t="n">
         <v>8.0</v>
@@ -3703,16 +3784,16 @@
         <v>38.0</v>
       </c>
       <c r="AF12" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="AG12" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AH12" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AI12" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AJ12" t="n">
         <v>5.0</v>
@@ -3721,10 +3802,10 @@
         <v>0.0</v>
       </c>
       <c r="AL12" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="AM12" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="AN12" t="n">
         <v>1.0</v>
@@ -3855,16 +3936,16 @@
         <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C13" t="n" s="2">
         <v>45514.0</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E13" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F13" t="n">
         <v>2.0</v>
@@ -3873,7 +3954,7 @@
         <v>2.0</v>
       </c>
       <c r="H13" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="I13" t="n">
         <v>0.0</v>
@@ -3882,7 +3963,7 @@
         <v>1.0</v>
       </c>
       <c r="K13" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L13" t="n">
         <v>3.42</v>
@@ -3894,10 +3975,10 @@
         <v>2.04</v>
       </c>
       <c r="O13" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="P13" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="Q13" t="n">
         <v>10.0</v>
@@ -3945,16 +4026,16 @@
         <v>26.0</v>
       </c>
       <c r="AF13" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="AG13" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH13" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AI13" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AJ13" t="n">
         <v>5.0</v>
@@ -3963,10 +4044,10 @@
         <v>0.0</v>
       </c>
       <c r="AL13" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="AM13" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="AN13" t="n">
         <v>4.0</v>
@@ -4097,17 +4178,17 @@
         <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C14" t="n" s="2">
         <v>45514.0</v>
       </c>
       <c r="D14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" t="s">
         <v>146</v>
       </c>
-      <c r="E14" t="s">
-        <v>137</v>
-      </c>
       <c r="F14" t="n">
         <v>0.0</v>
       </c>
@@ -4115,7 +4196,7 @@
         <v>0.0</v>
       </c>
       <c r="H14" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="I14" t="n">
         <v>0.0</v>
@@ -4124,7 +4205,7 @@
         <v>0.0</v>
       </c>
       <c r="K14" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="L14" t="n">
         <v>1.84</v>
@@ -4136,10 +4217,10 @@
         <v>4.01</v>
       </c>
       <c r="O14" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="P14" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="Q14" t="n">
         <v>20.0</v>
@@ -4187,16 +4268,16 @@
         <v>12.0</v>
       </c>
       <c r="AF14" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="AG14" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AH14" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AI14" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AJ14" t="n">
         <v>3.0</v>
@@ -4205,10 +4286,10 @@
         <v>0.0</v>
       </c>
       <c r="AL14" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="AM14" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="AN14" t="n">
         <v>0.0</v>
@@ -4339,16 +4420,16 @@
         <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C15" t="n" s="2">
         <v>45514.0</v>
       </c>
       <c r="D15" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E15" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="F15" t="n">
         <v>3.0</v>
@@ -4357,7 +4438,7 @@
         <v>1.0</v>
       </c>
       <c r="H15" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="I15" t="n">
         <v>0.0</v>
@@ -4366,7 +4447,7 @@
         <v>1.0</v>
       </c>
       <c r="K15" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L15" t="n">
         <v>3.04</v>
@@ -4378,10 +4459,10 @@
         <v>2.28</v>
       </c>
       <c r="O15" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="P15" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="Q15" t="n">
         <v>8.0</v>
@@ -4429,16 +4510,16 @@
         <v>23.0</v>
       </c>
       <c r="AF15" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="AG15" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH15" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AI15" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AJ15" t="n">
         <v>7.0</v>
@@ -4447,10 +4528,10 @@
         <v>2.0</v>
       </c>
       <c r="AL15" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="AM15" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="AN15" t="n">
         <v>4.0</v>
@@ -4581,16 +4662,16 @@
         <v>93</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C16" t="n" s="2">
         <v>45514.0</v>
       </c>
       <c r="D16" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E16" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F16" t="n">
         <v>1.0</v>
@@ -4599,7 +4680,7 @@
         <v>1.0</v>
       </c>
       <c r="H16" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="I16" t="n">
         <v>1.0</v>
@@ -4608,7 +4689,7 @@
         <v>0.0</v>
       </c>
       <c r="K16" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="L16" t="n">
         <v>1.84</v>
@@ -4620,10 +4701,10 @@
         <v>3.79</v>
       </c>
       <c r="O16" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="P16" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="Q16" t="n">
         <v>13.0</v>
@@ -4671,16 +4752,16 @@
         <v>17.0</v>
       </c>
       <c r="AF16" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="AG16" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH16" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AI16" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AJ16" t="n">
         <v>4.0</v>
@@ -4689,10 +4770,10 @@
         <v>0.0</v>
       </c>
       <c r="AL16" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AM16" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="AN16" t="n">
         <v>2.0</v>
@@ -4823,16 +4904,16 @@
         <v>94</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C17" t="n" s="2">
         <v>45515.0</v>
       </c>
       <c r="D17" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E17" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F17" t="n">
         <v>1.0</v>
@@ -4841,7 +4922,7 @@
         <v>3.0</v>
       </c>
       <c r="H17" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I17" t="n">
         <v>0.0</v>
@@ -4850,7 +4931,7 @@
         <v>1.0</v>
       </c>
       <c r="K17" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L17" t="n">
         <v>2.63</v>
@@ -4862,10 +4943,10 @@
         <v>2.67</v>
       </c>
       <c r="O17" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="P17" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="Q17" t="n">
         <v>20.0</v>
@@ -4913,16 +4994,16 @@
         <v>24.0</v>
       </c>
       <c r="AF17" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AG17" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH17" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AI17" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AJ17" t="n">
         <v>1.0</v>
@@ -4931,10 +5012,10 @@
         <v>0.0</v>
       </c>
       <c r="AL17" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AM17" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="AN17" t="n">
         <v>4.0</v>
@@ -5065,16 +5146,16 @@
         <v>95</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C18" t="n" s="2">
         <v>45515.0</v>
       </c>
       <c r="D18" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E18" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="F18" t="n">
         <v>3.0</v>
@@ -5083,7 +5164,7 @@
         <v>1.0</v>
       </c>
       <c r="H18" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="I18" t="n">
         <v>0.0</v>
@@ -5092,7 +5173,7 @@
         <v>1.0</v>
       </c>
       <c r="K18" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L18" t="n">
         <v>1.88</v>
@@ -5104,10 +5185,10 @@
         <v>3.94</v>
       </c>
       <c r="O18" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="P18" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="Q18" t="n">
         <v>18.0</v>
@@ -5155,16 +5236,16 @@
         <v>19.0</v>
       </c>
       <c r="AF18" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="AG18" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH18" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AI18" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AJ18" t="n">
         <v>2.0</v>
@@ -5173,10 +5254,10 @@
         <v>0.0</v>
       </c>
       <c r="AL18" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="AM18" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="AN18" t="n">
         <v>4.0</v>
@@ -5307,16 +5388,16 @@
         <v>96</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C19" t="n" s="2">
         <v>45515.0</v>
       </c>
       <c r="D19" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E19" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F19" t="n">
         <v>0.0</v>
@@ -5325,7 +5406,7 @@
         <v>0.0</v>
       </c>
       <c r="H19" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="I19" t="n">
         <v>0.0</v>
@@ -5334,7 +5415,7 @@
         <v>0.0</v>
       </c>
       <c r="K19" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="L19" t="n">
         <v>3.23</v>
@@ -5346,10 +5427,10 @@
         <v>2.12</v>
       </c>
       <c r="O19" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="P19" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="Q19" t="n">
         <v>11.0</v>
@@ -5397,16 +5478,16 @@
         <v>24.0</v>
       </c>
       <c r="AF19" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="AG19" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AH19" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AI19" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AJ19" t="n">
         <v>4.0</v>
@@ -5415,10 +5496,10 @@
         <v>0.0</v>
       </c>
       <c r="AL19" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="AM19" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="AN19" t="n">
         <v>0.0</v>
@@ -5549,16 +5630,16 @@
         <v>97</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C20" t="n" s="2">
         <v>45527.0</v>
       </c>
       <c r="D20" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E20" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="F20" t="n">
         <v>1.0</v>
@@ -5567,7 +5648,7 @@
         <v>0.0</v>
       </c>
       <c r="H20" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="I20" t="n">
         <v>0.0</v>
@@ -5576,7 +5657,7 @@
         <v>0.0</v>
       </c>
       <c r="K20" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="L20" t="n">
         <v>2.38</v>
@@ -5588,10 +5669,10 @@
         <v>2.88</v>
       </c>
       <c r="O20" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="P20" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="Q20" t="n">
         <v>9.0</v>
@@ -5639,16 +5720,16 @@
         <v>38.0</v>
       </c>
       <c r="AF20" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="AG20" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AH20" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AI20" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AJ20" t="n">
         <v>8.0</v>
@@ -5657,10 +5738,10 @@
         <v>1.0</v>
       </c>
       <c r="AL20" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="AM20" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="AN20" t="n">
         <v>1.0</v>
@@ -5791,16 +5872,16 @@
         <v>98</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C21" t="n" s="2">
         <v>45527.0</v>
       </c>
       <c r="D21" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E21" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="F21" t="n">
         <v>3.0</v>
@@ -5809,7 +5890,7 @@
         <v>2.0</v>
       </c>
       <c r="H21" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="I21" t="n">
         <v>1.0</v>
@@ -5818,7 +5899,7 @@
         <v>1.0</v>
       </c>
       <c r="K21" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="L21" t="n">
         <v>1.62</v>
@@ -5830,10 +5911,10 @@
         <v>5.06</v>
       </c>
       <c r="O21" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="P21" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Q21" t="n">
         <v>11.0</v>
@@ -5881,16 +5962,16 @@
         <v>14.0</v>
       </c>
       <c r="AF21" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="AG21" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH21" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AI21" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AJ21" t="n">
         <v>2.0</v>
@@ -5899,10 +5980,10 @@
         <v>0.0</v>
       </c>
       <c r="AL21" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="AM21" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="AN21" t="n">
         <v>5.0</v>
@@ -6033,16 +6114,16 @@
         <v>99</v>
       </c>
       <c r="B22" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C22" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D22" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E22" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F22" t="n">
         <v>1.0</v>
@@ -6051,7 +6132,7 @@
         <v>1.0</v>
       </c>
       <c r="H22" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="I22" t="n">
         <v>0.0</v>
@@ -6060,7 +6141,7 @@
         <v>0.0</v>
       </c>
       <c r="K22" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="L22" t="n">
         <v>2.59</v>
@@ -6072,10 +6153,10 @@
         <v>2.62</v>
       </c>
       <c r="O22" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="P22" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="Q22" t="n">
         <v>14.0</v>
@@ -6123,16 +6204,16 @@
         <v>28.0</v>
       </c>
       <c r="AF22" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AG22" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH22" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AI22" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AJ22" t="n">
         <v>6.0</v>
@@ -6141,10 +6222,10 @@
         <v>0.0</v>
       </c>
       <c r="AL22" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="AM22" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="AN22" t="n">
         <v>2.0</v>
@@ -6275,16 +6356,16 @@
         <v>100</v>
       </c>
       <c r="B23" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C23" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D23" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E23" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="F23" t="n">
         <v>2.0</v>
@@ -6293,7 +6374,7 @@
         <v>0.0</v>
       </c>
       <c r="H23" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="I23" t="n">
         <v>0.0</v>
@@ -6302,7 +6383,7 @@
         <v>0.0</v>
       </c>
       <c r="K23" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="L23" t="n">
         <v>1.56</v>
@@ -6314,10 +6395,10 @@
         <v>5.78</v>
       </c>
       <c r="O23" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="P23" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="Q23" t="n">
         <v>11.0</v>
@@ -6365,16 +6446,16 @@
         <v>21.0</v>
       </c>
       <c r="AF23" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="AG23" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH23" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AI23" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AJ23" t="n">
         <v>6.0</v>
@@ -6383,10 +6464,10 @@
         <v>1.0</v>
       </c>
       <c r="AL23" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="AM23" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="AN23" t="n">
         <v>2.0</v>
@@ -6517,16 +6598,16 @@
         <v>101</v>
       </c>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C24" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D24" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E24" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F24" t="n">
         <v>0.0</v>
@@ -6535,7 +6616,7 @@
         <v>1.0</v>
       </c>
       <c r="H24" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I24" t="n">
         <v>0.0</v>
@@ -6544,7 +6625,7 @@
         <v>0.0</v>
       </c>
       <c r="K24" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="L24" t="n">
         <v>2.91</v>
@@ -6556,10 +6637,10 @@
         <v>2.34</v>
       </c>
       <c r="O24" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="P24" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="Q24" t="n">
         <v>14.0</v>
@@ -6607,16 +6688,16 @@
         <v>33.0</v>
       </c>
       <c r="AF24" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="AG24" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AH24" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AI24" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AJ24" t="n">
         <v>8.0</v>
@@ -6625,10 +6706,10 @@
         <v>0.0</v>
       </c>
       <c r="AL24" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AM24" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="AN24" t="n">
         <v>1.0</v>
@@ -6759,16 +6840,16 @@
         <v>102</v>
       </c>
       <c r="B25" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C25" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D25" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E25" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="F25" t="n">
         <v>5.0</v>
@@ -6777,7 +6858,7 @@
         <v>0.0</v>
       </c>
       <c r="H25" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="I25" t="n">
         <v>2.0</v>
@@ -6786,7 +6867,7 @@
         <v>0.0</v>
       </c>
       <c r="K25" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="L25" t="n">
         <v>1.45</v>
@@ -6798,10 +6879,10 @@
         <v>6.13</v>
       </c>
       <c r="O25" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="P25" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="Q25" t="n">
         <v>22.0</v>
@@ -6849,16 +6930,16 @@
         <v>21.0</v>
       </c>
       <c r="AF25" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="AG25" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH25" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AI25" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AJ25" t="n">
         <v>3.0</v>
@@ -6867,10 +6948,10 @@
         <v>0.0</v>
       </c>
       <c r="AL25" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AM25" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="AN25" t="n">
         <v>5.0</v>
@@ -7001,16 +7082,16 @@
         <v>103</v>
       </c>
       <c r="B26" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C26" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D26" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E26" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F26" t="n">
         <v>1.0</v>
@@ -7019,7 +7100,7 @@
         <v>1.0</v>
       </c>
       <c r="H26" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="I26" t="n">
         <v>1.0</v>
@@ -7028,7 +7109,7 @@
         <v>0.0</v>
       </c>
       <c r="K26" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="L26" t="n">
         <v>2.2</v>
@@ -7040,10 +7121,10 @@
         <v>3.1</v>
       </c>
       <c r="O26" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="P26" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="Q26" t="n">
         <v>19.0</v>
@@ -7091,16 +7172,16 @@
         <v>24.0</v>
       </c>
       <c r="AF26" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="AG26" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH26" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AI26" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AJ26" t="n">
         <v>5.0</v>
@@ -7109,10 +7190,10 @@
         <v>0.0</v>
       </c>
       <c r="AL26" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="AM26" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="AN26" t="n">
         <v>2.0</v>
@@ -7243,16 +7324,16 @@
         <v>104</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C27" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D27" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E27" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="F27" t="n">
         <v>2.0</v>
@@ -7261,7 +7342,7 @@
         <v>2.0</v>
       </c>
       <c r="H27" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="I27" t="n">
         <v>2.0</v>
@@ -7270,7 +7351,7 @@
         <v>1.0</v>
       </c>
       <c r="K27" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="L27" t="n">
         <v>2.47</v>
@@ -7282,10 +7363,10 @@
         <v>2.69</v>
       </c>
       <c r="O27" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="P27" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="Q27" t="n">
         <v>14.0</v>
@@ -7333,16 +7414,16 @@
         <v>21.0</v>
       </c>
       <c r="AF27" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="AG27" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH27" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AI27" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AJ27" t="n">
         <v>6.0</v>
@@ -7351,10 +7432,10 @@
         <v>0.0</v>
       </c>
       <c r="AL27" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="AM27" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="AN27" t="n">
         <v>4.0</v>
@@ -7485,16 +7566,16 @@
         <v>105</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C28" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D28" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E28" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F28" t="n">
         <v>1.0</v>
@@ -7503,7 +7584,7 @@
         <v>2.0</v>
       </c>
       <c r="H28" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I28" t="n">
         <v>1.0</v>
@@ -7512,7 +7593,7 @@
         <v>0.0</v>
       </c>
       <c r="K28" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="L28" t="n">
         <v>4.01</v>
@@ -7524,10 +7605,10 @@
         <v>1.88</v>
       </c>
       <c r="O28" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="P28" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Q28" t="n">
         <v>21.0</v>
@@ -7575,16 +7656,16 @@
         <v>23.0</v>
       </c>
       <c r="AF28" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="AG28" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH28" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AI28" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AJ28" t="n">
         <v>7.0</v>
@@ -7593,10 +7674,10 @@
         <v>0.0</v>
       </c>
       <c r="AL28" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="AM28" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="AN28" t="n">
         <v>3.0</v>
@@ -7727,16 +7808,16 @@
         <v>106</v>
       </c>
       <c r="B29" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C29" t="n" s="2">
         <v>45534.0</v>
       </c>
       <c r="D29" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E29" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F29" t="n">
         <v>1.0</v>
@@ -7745,7 +7826,7 @@
         <v>0.0</v>
       </c>
       <c r="H29" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="I29" t="n">
         <v>0.0</v>
@@ -7754,7 +7835,7 @@
         <v>0.0</v>
       </c>
       <c r="K29" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="L29" t="n">
         <v>2.37</v>
@@ -7766,10 +7847,10 @@
         <v>3.09</v>
       </c>
       <c r="O29" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="P29" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="Q29" t="n">
         <v>23.0</v>
@@ -7817,16 +7898,16 @@
         <v>23.0</v>
       </c>
       <c r="AF29" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="AG29" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AH29" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AI29" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AJ29" t="n">
         <v>8.0</v>
@@ -7835,10 +7916,10 @@
         <v>0.0</v>
       </c>
       <c r="AL29" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="AM29" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="AN29" t="n">
         <v>1.0</v>
@@ -7969,16 +8050,16 @@
         <v>107</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C30" t="n" s="2">
         <v>45534.0</v>
       </c>
       <c r="D30" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E30" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F30" t="n">
         <v>0.0</v>
@@ -7987,7 +8068,7 @@
         <v>4.0</v>
       </c>
       <c r="H30" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I30" t="n">
         <v>0.0</v>
@@ -7996,7 +8077,7 @@
         <v>1.0</v>
       </c>
       <c r="K30" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L30" t="n">
         <v>2.8</v>
@@ -8008,10 +8089,10 @@
         <v>2.56</v>
       </c>
       <c r="O30" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="P30" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="Q30" t="n">
         <v>17.0</v>
@@ -8059,16 +8140,16 @@
         <v>22.0</v>
       </c>
       <c r="AF30" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="AG30" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH30" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AI30" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AJ30" t="n">
         <v>5.0</v>
@@ -8077,10 +8158,10 @@
         <v>0.0</v>
       </c>
       <c r="AL30" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="AM30" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="AN30" t="n">
         <v>4.0</v>
@@ -8211,16 +8292,16 @@
         <v>108</v>
       </c>
       <c r="B31" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C31" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E31" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="F31" t="n">
         <v>4.0</v>
@@ -8229,7 +8310,7 @@
         <v>0.0</v>
       </c>
       <c r="H31" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="I31" t="n">
         <v>2.0</v>
@@ -8238,7 +8319,7 @@
         <v>0.0</v>
       </c>
       <c r="K31" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="L31" t="n">
         <v>2.37</v>
@@ -8250,10 +8331,10 @@
         <v>2.85</v>
       </c>
       <c r="O31" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="P31" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="Q31" t="n">
         <v>17.0</v>
@@ -8301,16 +8382,16 @@
         <v>27.0</v>
       </c>
       <c r="AF31" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="AG31" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH31" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AI31" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AJ31" t="n">
         <v>5.0</v>
@@ -8319,10 +8400,10 @@
         <v>0.0</v>
       </c>
       <c r="AL31" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="AM31" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="AN31" t="n">
         <v>4.0</v>
@@ -8453,16 +8534,16 @@
         <v>109</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C32" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D32" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E32" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="F32" t="n">
         <v>4.0</v>
@@ -8471,7 +8552,7 @@
         <v>1.0</v>
       </c>
       <c r="H32" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="I32" t="n">
         <v>3.0</v>
@@ -8480,7 +8561,7 @@
         <v>0.0</v>
       </c>
       <c r="K32" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="L32" t="n">
         <v>1.39</v>
@@ -8492,10 +8573,10 @@
         <v>7.22</v>
       </c>
       <c r="O32" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="P32" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="Q32" t="n">
         <v>10.0</v>
@@ -8543,16 +8624,16 @@
         <v>21.0</v>
       </c>
       <c r="AF32" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="AG32" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH32" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AI32" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AJ32" t="n">
         <v>0.0</v>
@@ -8561,10 +8642,10 @@
         <v>0.0</v>
       </c>
       <c r="AL32" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="AM32" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="AN32" t="n">
         <v>5.0</v>
@@ -8695,16 +8776,16 @@
         <v>110</v>
       </c>
       <c r="B33" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C33" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D33" t="s">
+        <v>156</v>
+      </c>
+      <c r="E33" t="s">
         <v>147</v>
-      </c>
-      <c r="E33" t="s">
-        <v>138</v>
       </c>
       <c r="F33" t="n">
         <v>0.0</v>
@@ -8713,7 +8794,7 @@
         <v>4.0</v>
       </c>
       <c r="H33" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I33" t="n">
         <v>0.0</v>
@@ -8722,7 +8803,7 @@
         <v>1.0</v>
       </c>
       <c r="K33" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L33" t="n">
         <v>2.68</v>
@@ -8734,10 +8815,10 @@
         <v>2.58</v>
       </c>
       <c r="O33" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="P33" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="Q33" t="n">
         <v>7.0</v>
@@ -8785,16 +8866,16 @@
         <v>19.0</v>
       </c>
       <c r="AF33" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="AG33" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH33" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AI33" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AJ33" t="n">
         <v>1.0</v>
@@ -8803,10 +8884,10 @@
         <v>0.0</v>
       </c>
       <c r="AL33" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="AM33" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="AN33" t="n">
         <v>4.0</v>
@@ -8937,16 +9018,16 @@
         <v>111</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C34" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D34" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E34" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F34" t="n">
         <v>3.0</v>
@@ -8955,7 +9036,7 @@
         <v>4.0</v>
       </c>
       <c r="H34" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I34" t="n">
         <v>2.0</v>
@@ -8964,7 +9045,7 @@
         <v>1.0</v>
       </c>
       <c r="K34" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="L34" t="n">
         <v>2.33</v>
@@ -8976,10 +9057,10 @@
         <v>2.82</v>
       </c>
       <c r="O34" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="P34" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="Q34" t="n">
         <v>24.0</v>
@@ -9027,16 +9108,16 @@
         <v>16.0</v>
       </c>
       <c r="AF34" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="AG34" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH34" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AI34" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AJ34" t="n">
         <v>2.0</v>
@@ -9045,10 +9126,10 @@
         <v>0.0</v>
       </c>
       <c r="AL34" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="AM34" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="AN34" t="n">
         <v>7.0</v>
@@ -9179,16 +9260,16 @@
         <v>112</v>
       </c>
       <c r="B35" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C35" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D35" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E35" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F35" t="n">
         <v>1.0</v>
@@ -9197,7 +9278,7 @@
         <v>2.0</v>
       </c>
       <c r="H35" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I35" t="n">
         <v>1.0</v>
@@ -9206,7 +9287,7 @@
         <v>0.0</v>
       </c>
       <c r="K35" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="L35" t="n">
         <v>3.42</v>
@@ -9218,10 +9299,10 @@
         <v>1.99</v>
       </c>
       <c r="O35" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="P35" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Q35" t="n">
         <v>7.0</v>
@@ -9269,16 +9350,16 @@
         <v>19.0</v>
       </c>
       <c r="AF35" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="AG35" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH35" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AI35" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AJ35" t="n">
         <v>3.0</v>
@@ -9287,10 +9368,10 @@
         <v>0.0</v>
       </c>
       <c r="AL35" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="AM35" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="AN35" t="n">
         <v>3.0</v>
@@ -9421,16 +9502,16 @@
         <v>113</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C36" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D36" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E36" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F36" t="n">
         <v>0.0</v>
@@ -9439,7 +9520,7 @@
         <v>0.0</v>
       </c>
       <c r="H36" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="I36" t="n">
         <v>0.0</v>
@@ -9448,7 +9529,7 @@
         <v>0.0</v>
       </c>
       <c r="K36" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="L36" t="n">
         <v>1.53</v>
@@ -9460,10 +9541,10 @@
         <v>5.51</v>
       </c>
       <c r="O36" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="P36" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="Q36" t="n">
         <v>18.0</v>
@@ -9511,16 +9592,16 @@
         <v>25.0</v>
       </c>
       <c r="AF36" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="AG36" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AH36" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AI36" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AJ36" t="n">
         <v>6.0</v>
@@ -9529,10 +9610,10 @@
         <v>0.0</v>
       </c>
       <c r="AL36" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="AM36" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="AN36" t="n">
         <v>0.0</v>
@@ -9663,16 +9744,16 @@
         <v>114</v>
       </c>
       <c r="B37" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C37" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D37" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E37" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F37" t="n">
         <v>1.0</v>
@@ -9681,7 +9762,7 @@
         <v>3.0</v>
       </c>
       <c r="H37" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I37" t="n">
         <v>0.0</v>
@@ -9690,7 +9771,7 @@
         <v>2.0</v>
       </c>
       <c r="K37" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L37" t="n">
         <v>3.13</v>
@@ -9702,10 +9783,10 @@
         <v>2.17</v>
       </c>
       <c r="O37" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="P37" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="Q37" t="n">
         <v>15.0</v>
@@ -9753,16 +9834,16 @@
         <v>23.0</v>
       </c>
       <c r="AF37" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="AG37" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH37" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AI37" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AJ37" t="n">
         <v>6.0</v>
@@ -9771,10 +9852,10 @@
         <v>0.0</v>
       </c>
       <c r="AL37" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="AM37" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="AN37" t="n">
         <v>4.0</v>
@@ -9905,16 +9986,16 @@
         <v>115</v>
       </c>
       <c r="B38" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C38" t="n" s="2">
         <v>45548.0</v>
       </c>
       <c r="D38" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E38" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="F38" t="n">
         <v>2.0</v>
@@ -9923,7 +10004,7 @@
         <v>0.0</v>
       </c>
       <c r="H38" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="I38" t="n">
         <v>1.0</v>
@@ -9932,7 +10013,7 @@
         <v>0.0</v>
       </c>
       <c r="K38" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="L38" t="n">
         <v>1.9</v>
@@ -9944,10 +10025,10 @@
         <v>3.79</v>
       </c>
       <c r="O38" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="P38" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="Q38" t="n">
         <v>14.0</v>
@@ -9995,16 +10076,16 @@
         <v>22.0</v>
       </c>
       <c r="AF38" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="AG38" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH38" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AI38" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AJ38" t="n">
         <v>5.0</v>
@@ -10013,10 +10094,10 @@
         <v>0.0</v>
       </c>
       <c r="AL38" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="AM38" t="s">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="AN38" t="n">
         <v>2.0</v>
@@ -10147,16 +10228,16 @@
         <v>116</v>
       </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C39" t="n" s="2">
         <v>45548.0</v>
       </c>
       <c r="D39" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E39" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F39" t="n">
         <v>3.0</v>
@@ -10165,7 +10246,7 @@
         <v>3.0</v>
       </c>
       <c r="H39" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="I39" t="n">
         <v>1.0</v>
@@ -10174,7 +10255,7 @@
         <v>1.0</v>
       </c>
       <c r="K39" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="L39" t="n">
         <v>3.3</v>
@@ -10186,10 +10267,10 @@
         <v>2.08</v>
       </c>
       <c r="O39" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="P39" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="Q39" t="n">
         <v>11.0</v>
@@ -10237,16 +10318,16 @@
         <v>16.0</v>
       </c>
       <c r="AF39" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="AG39" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH39" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AI39" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AJ39" t="n">
         <v>5.0</v>
@@ -10255,10 +10336,10 @@
         <v>0.0</v>
       </c>
       <c r="AL39" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="AM39" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="AN39" t="n">
         <v>6.0</v>
@@ -10389,16 +10470,16 @@
         <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C40" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D40" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E40" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="F40" t="n">
         <v>1.0</v>
@@ -10407,7 +10488,7 @@
         <v>1.0</v>
       </c>
       <c r="H40" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="I40" t="n">
         <v>1.0</v>
@@ -10416,7 +10497,7 @@
         <v>0.0</v>
       </c>
       <c r="K40" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="L40" t="n">
         <v>1.79</v>
@@ -10428,10 +10509,10 @@
         <v>4.06</v>
       </c>
       <c r="O40" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="P40" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="Q40" t="n">
         <v>15.0</v>
@@ -10479,16 +10560,16 @@
         <v>23.0</v>
       </c>
       <c r="AF40" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="AG40" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH40" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AI40" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AJ40" t="n">
         <v>8.0</v>
@@ -10497,10 +10578,10 @@
         <v>0.0</v>
       </c>
       <c r="AL40" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="AM40" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="AN40" t="n">
         <v>2.0</v>
@@ -10631,16 +10712,16 @@
         <v>118</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C41" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D41" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E41" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F41" t="n">
         <v>3.0</v>
@@ -10649,7 +10730,7 @@
         <v>1.0</v>
       </c>
       <c r="H41" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="I41" t="n">
         <v>1.0</v>
@@ -10658,7 +10739,7 @@
         <v>0.0</v>
       </c>
       <c r="K41" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="L41" t="n">
         <v>1.86</v>
@@ -10670,10 +10751,10 @@
         <v>3.88</v>
       </c>
       <c r="O41" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="P41" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="Q41" t="n">
         <v>18.0</v>
@@ -10721,16 +10802,16 @@
         <v>28.0</v>
       </c>
       <c r="AF41" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="AG41" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH41" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AI41" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AJ41" t="n">
         <v>8.0</v>
@@ -10739,10 +10820,10 @@
         <v>0.0</v>
       </c>
       <c r="AL41" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="AM41" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="AN41" t="n">
         <v>4.0</v>
@@ -10873,16 +10954,16 @@
         <v>119</v>
       </c>
       <c r="B42" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C42" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D42" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E42" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F42" t="n">
         <v>1.0</v>
@@ -10891,7 +10972,7 @@
         <v>2.0</v>
       </c>
       <c r="H42" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I42" t="n">
         <v>0.0</v>
@@ -10900,7 +10981,7 @@
         <v>0.0</v>
       </c>
       <c r="K42" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="L42" t="n">
         <v>2.33</v>
@@ -10912,10 +10993,10 @@
         <v>3.06</v>
       </c>
       <c r="O42" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="P42" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Q42" t="n">
         <v>12.0</v>
@@ -10963,16 +11044,16 @@
         <v>24.0</v>
       </c>
       <c r="AF42" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="AG42" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH42" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AI42" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AJ42" t="n">
         <v>11.0</v>
@@ -10981,10 +11062,10 @@
         <v>1.0</v>
       </c>
       <c r="AL42" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="AM42" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="AN42" t="n">
         <v>3.0</v>
@@ -11115,16 +11196,16 @@
         <v>120</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C43" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D43" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E43" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F43" t="n">
         <v>1.0</v>
@@ -11133,7 +11214,7 @@
         <v>2.0</v>
       </c>
       <c r="H43" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I43" t="n">
         <v>0.0</v>
@@ -11142,7 +11223,7 @@
         <v>0.0</v>
       </c>
       <c r="K43" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="L43" t="n">
         <v>1.49</v>
@@ -11154,10 +11235,10 @@
         <v>5.72</v>
       </c>
       <c r="O43" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="P43" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Q43" t="n">
         <v>33.0</v>
@@ -11205,16 +11286,16 @@
         <v>23.0</v>
       </c>
       <c r="AF43" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AG43" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH43" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AI43" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AJ43" t="n">
         <v>7.0</v>
@@ -11223,10 +11304,10 @@
         <v>0.0</v>
       </c>
       <c r="AL43" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="AM43" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="AN43" t="n">
         <v>3.0</v>
@@ -11357,16 +11438,16 @@
         <v>121</v>
       </c>
       <c r="B44" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C44" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D44" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E44" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="F44" t="n">
         <v>0.0</v>
@@ -11375,7 +11456,7 @@
         <v>0.0</v>
       </c>
       <c r="H44" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="I44" t="n">
         <v>0.0</v>
@@ -11384,7 +11465,7 @@
         <v>0.0</v>
       </c>
       <c r="K44" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="L44" t="n">
         <v>1.9</v>
@@ -11396,10 +11477,10 @@
         <v>3.61</v>
       </c>
       <c r="O44" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="P44" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="Q44" t="n">
         <v>10.0</v>
@@ -11447,16 +11528,16 @@
         <v>23.0</v>
       </c>
       <c r="AF44" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="AG44" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AH44" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AI44" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AJ44" t="n">
         <v>4.0</v>
@@ -11465,10 +11546,10 @@
         <v>0.0</v>
       </c>
       <c r="AL44" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="AM44" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="AN44" t="n">
         <v>0.0</v>
@@ -11599,16 +11680,16 @@
         <v>122</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C45" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D45" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E45" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="F45" t="n">
         <v>5.0</v>
@@ -11617,7 +11698,7 @@
         <v>0.0</v>
       </c>
       <c r="H45" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="I45" t="n">
         <v>2.0</v>
@@ -11626,7 +11707,7 @@
         <v>0.0</v>
       </c>
       <c r="K45" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="L45" t="n">
         <v>1.3</v>
@@ -11638,10 +11719,10 @@
         <v>8.81</v>
       </c>
       <c r="O45" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="P45" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="Q45" t="n">
         <v>16.0</v>
@@ -11689,16 +11770,16 @@
         <v>23.0</v>
       </c>
       <c r="AF45" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="AG45" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH45" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AI45" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AJ45" t="n">
         <v>9.0</v>
@@ -11707,10 +11788,10 @@
         <v>0.0</v>
       </c>
       <c r="AL45" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="AM45" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="AN45" t="n">
         <v>5.0</v>
@@ -11841,16 +11922,16 @@
         <v>123</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C46" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D46" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E46" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F46" t="n">
         <v>0.0</v>
@@ -11859,7 +11940,7 @@
         <v>2.0</v>
       </c>
       <c r="H46" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I46" t="n">
         <v>0.0</v>
@@ -11868,7 +11949,7 @@
         <v>1.0</v>
       </c>
       <c r="K46" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L46" t="n">
         <v>2.53</v>
@@ -11880,10 +11961,10 @@
         <v>2.61</v>
       </c>
       <c r="O46" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="P46" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="Q46" t="n">
         <v>12.0</v>
@@ -11931,16 +12012,16 @@
         <v>27.0</v>
       </c>
       <c r="AF46" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="AG46" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH46" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AI46" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AJ46" t="n">
         <v>7.0</v>
@@ -11949,10 +12030,10 @@
         <v>0.0</v>
       </c>
       <c r="AL46" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="AM46" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="AN46" t="n">
         <v>2.0</v>
@@ -12083,16 +12164,16 @@
         <v>124</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C47" t="n" s="2">
         <v>45555.0</v>
       </c>
       <c r="D47" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E47" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F47" t="n">
         <v>2.0</v>
@@ -12101,7 +12182,7 @@
         <v>1.0</v>
       </c>
       <c r="H47" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="I47" t="n">
         <v>1.0</v>
@@ -12110,7 +12191,7 @@
         <v>1.0</v>
       </c>
       <c r="K47" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="L47" t="n">
         <v>2.21</v>
@@ -12122,10 +12203,10 @@
         <v>3.21</v>
       </c>
       <c r="O47" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="P47" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="Q47" t="n">
         <v>14.0</v>
@@ -12173,16 +12254,16 @@
         <v>26.0</v>
       </c>
       <c r="AF47" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="AG47" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH47" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AI47" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AJ47" t="n">
         <v>4.0</v>
@@ -12191,10 +12272,10 @@
         <v>0.0</v>
       </c>
       <c r="AL47" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="AM47" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="AN47" t="n">
         <v>3.0</v>
@@ -12325,16 +12406,16 @@
         <v>125</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C48" t="n" s="2">
         <v>45555.0</v>
       </c>
       <c r="D48" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E48" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="F48" t="n">
         <v>3.0</v>
@@ -12343,7 +12424,7 @@
         <v>5.0</v>
       </c>
       <c r="H48" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I48" t="n">
         <v>3.0</v>
@@ -12352,7 +12433,7 @@
         <v>1.0</v>
       </c>
       <c r="K48" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="L48" t="n">
         <v>1.96</v>
@@ -12364,10 +12445,10 @@
         <v>3.84</v>
       </c>
       <c r="O48" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="P48" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="Q48" t="n">
         <v>18.0</v>
@@ -12415,16 +12496,16 @@
         <v>27.0</v>
       </c>
       <c r="AF48" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="AG48" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH48" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AI48" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AJ48" t="n">
         <v>11.0</v>
@@ -12433,10 +12514,10 @@
         <v>0.0</v>
       </c>
       <c r="AL48" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="AM48" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="AN48" t="n">
         <v>8.0</v>
@@ -12567,16 +12648,16 @@
         <v>126</v>
       </c>
       <c r="B49" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C49" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D49" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E49" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F49" t="n">
         <v>2.0</v>
@@ -12585,7 +12666,7 @@
         <v>0.0</v>
       </c>
       <c r="H49" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="I49" t="n">
         <v>1.0</v>
@@ -12594,7 +12675,7 @@
         <v>0.0</v>
       </c>
       <c r="K49" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="L49" t="n">
         <v>2.93</v>
@@ -12606,10 +12687,10 @@
         <v>2.38</v>
       </c>
       <c r="O49" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="P49" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="Q49" t="n">
         <v>20.0</v>
@@ -12657,16 +12738,16 @@
         <v>31.0</v>
       </c>
       <c r="AF49" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AG49" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH49" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AI49" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AJ49" t="n">
         <v>9.0</v>
@@ -12675,10 +12756,10 @@
         <v>0.0</v>
       </c>
       <c r="AL49" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="AM49" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="AN49" t="n">
         <v>2.0</v>
@@ -12809,16 +12890,16 @@
         <v>127</v>
       </c>
       <c r="B50" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C50" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D50" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E50" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F50" t="n">
         <v>2.0</v>
@@ -12827,7 +12908,7 @@
         <v>2.0</v>
       </c>
       <c r="H50" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="I50" t="n">
         <v>1.0</v>
@@ -12836,7 +12917,7 @@
         <v>1.0</v>
       </c>
       <c r="K50" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="L50" t="n">
         <v>3.04</v>
@@ -12848,10 +12929,10 @@
         <v>2.3</v>
       </c>
       <c r="O50" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="P50" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="Q50" t="n">
         <v>9.0</v>
@@ -12899,16 +12980,16 @@
         <v>20.0</v>
       </c>
       <c r="AF50" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="AG50" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH50" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AI50" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AJ50" t="n">
         <v>4.0</v>
@@ -12917,10 +12998,10 @@
         <v>0.0</v>
       </c>
       <c r="AL50" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="AM50" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="AN50" t="n">
         <v>4.0</v>
@@ -13051,16 +13132,16 @@
         <v>128</v>
       </c>
       <c r="B51" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C51" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D51" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E51" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F51" t="n">
         <v>0.0</v>
@@ -13069,7 +13150,7 @@
         <v>2.0</v>
       </c>
       <c r="H51" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I51" t="n">
         <v>0.0</v>
@@ -13078,7 +13159,7 @@
         <v>1.0</v>
       </c>
       <c r="K51" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L51" t="n">
         <v>3.21</v>
@@ -13090,10 +13171,10 @@
         <v>2.17</v>
       </c>
       <c r="O51" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="P51" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="Q51" t="n">
         <v>7.0</v>
@@ -13141,16 +13222,16 @@
         <v>33.0</v>
       </c>
       <c r="AF51" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="AG51" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH51" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AI51" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AJ51" t="n">
         <v>5.0</v>
@@ -13159,10 +13240,10 @@
         <v>0.0</v>
       </c>
       <c r="AL51" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="AM51" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="AN51" t="n">
         <v>2.0</v>
@@ -13293,16 +13374,16 @@
         <v>129</v>
       </c>
       <c r="B52" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C52" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D52" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E52" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="F52" t="n">
         <v>2.0</v>
@@ -13311,7 +13392,7 @@
         <v>2.0</v>
       </c>
       <c r="H52" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="I52" t="n">
         <v>1.0</v>
@@ -13320,7 +13401,7 @@
         <v>0.0</v>
       </c>
       <c r="K52" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="L52" t="n">
         <v>3.12</v>
@@ -13332,10 +13413,10 @@
         <v>2.14</v>
       </c>
       <c r="O52" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="P52" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="Q52" t="n">
         <v>10.0</v>
@@ -13383,16 +13464,16 @@
         <v>22.0</v>
       </c>
       <c r="AF52" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="AG52" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH52" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AI52" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AJ52" t="n">
         <v>5.0</v>
@@ -13401,10 +13482,10 @@
         <v>0.0</v>
       </c>
       <c r="AL52" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="AM52" t="s">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="AN52" t="n">
         <v>4.0</v>
@@ -13535,16 +13616,16 @@
         <v>130</v>
       </c>
       <c r="B53" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C53" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D53" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E53" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F53" t="n">
         <v>1.0</v>
@@ -13553,7 +13634,7 @@
         <v>3.0</v>
       </c>
       <c r="H53" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I53" t="n">
         <v>0.0</v>
@@ -13562,7 +13643,7 @@
         <v>1.0</v>
       </c>
       <c r="K53" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L53" t="n">
         <v>1.88</v>
@@ -13574,10 +13655,10 @@
         <v>3.94</v>
       </c>
       <c r="O53" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="P53" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="Q53" t="n">
         <v>19.0</v>
@@ -13625,16 +13706,16 @@
         <v>22.0</v>
       </c>
       <c r="AF53" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="AG53" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH53" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AI53" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AJ53" t="n">
         <v>5.0</v>
@@ -13643,10 +13724,10 @@
         <v>0.0</v>
       </c>
       <c r="AL53" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="AM53" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="AN53" t="n">
         <v>4.0</v>
@@ -13777,16 +13858,16 @@
         <v>131</v>
       </c>
       <c r="B54" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C54" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D54" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E54" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F54" t="n">
         <v>2.0</v>
@@ -13795,7 +13876,7 @@
         <v>2.0</v>
       </c>
       <c r="H54" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="I54" t="n">
         <v>1.0</v>
@@ -13804,7 +13885,7 @@
         <v>2.0</v>
       </c>
       <c r="K54" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L54" t="n">
         <v>2.8</v>
@@ -13816,10 +13897,10 @@
         <v>2.4</v>
       </c>
       <c r="O54" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="P54" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="Q54" t="n">
         <v>13.0</v>
@@ -13867,16 +13948,16 @@
         <v>18.0</v>
       </c>
       <c r="AF54" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="AG54" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH54" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AI54" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AJ54" t="n">
         <v>6.0</v>
@@ -13885,10 +13966,10 @@
         <v>0.0</v>
       </c>
       <c r="AL54" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="AM54" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="AN54" t="n">
         <v>4.0</v>
@@ -14019,16 +14100,16 @@
         <v>132</v>
       </c>
       <c r="B55" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C55" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D55" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E55" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="F55" t="n">
         <v>0.0</v>
@@ -14037,7 +14118,7 @@
         <v>3.0</v>
       </c>
       <c r="H55" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I55" t="n">
         <v>0.0</v>
@@ -14046,7 +14127,7 @@
         <v>1.0</v>
       </c>
       <c r="K55" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L55" t="n">
         <v>2.33</v>
@@ -14058,10 +14139,10 @@
         <v>3.05</v>
       </c>
       <c r="O55" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="P55" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="Q55" t="n">
         <v>20.0</v>
@@ -14109,16 +14190,16 @@
         <v>36.0</v>
       </c>
       <c r="AF55" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="AG55" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AH55" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AI55" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AJ55" t="n">
         <v>4.0</v>
@@ -14127,19 +14208,19 @@
         <v>0.0</v>
       </c>
       <c r="AL55" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="AM55" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="AN55" t="n">
         <v>3.0</v>
       </c>
       <c r="AO55" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AQ55" t="n">
         <v>160.0</v>
@@ -14254,6 +14335,2184 @@
       </c>
       <c r="CB55" t="n">
         <v>98.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" t="n" s="2">
+        <v>45562.0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>150</v>
+      </c>
+      <c r="E56" t="s">
+        <v>155</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H56" t="s">
+        <v>161</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K56" t="s">
+        <v>163</v>
+      </c>
+      <c r="L56" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="O56" t="s">
+        <v>170</v>
+      </c>
+      <c r="P56" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>225</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>229</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>285</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>317</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>179.0</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>1074.0</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM56" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BN56" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO56" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BP56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ56" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="BR56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS56" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="BT56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="BV56" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="BW56" t="n">
+        <v>171.0</v>
+      </c>
+      <c r="BX56" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="BY56" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="BZ56" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="CA56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CB56" t="n">
+        <v>83.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" t="n" s="2">
+        <v>45562.0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>151</v>
+      </c>
+      <c r="E57" t="s">
+        <v>158</v>
+      </c>
+      <c r="F57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H57" t="s">
+        <v>162</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K57" t="s">
+        <v>162</v>
+      </c>
+      <c r="L57" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="N57" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O57" t="s">
+        <v>165</v>
+      </c>
+      <c r="P57" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>229</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>229</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>286</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>309</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>213.0</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>1500.0</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>380.0</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>760.0</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>1704.0</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>3040.0</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BL57" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BM57" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BN57" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BO57" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BP57" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="BQ57" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="BR57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS57" t="n">
+        <v>267.0</v>
+      </c>
+      <c r="BT57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="BV57" t="n">
+        <v>267.0</v>
+      </c>
+      <c r="BW57" t="n">
+        <v>382.0</v>
+      </c>
+      <c r="BX57" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="BY57" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="BZ57" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="CA57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CB57" t="n">
+        <v>144.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58" t="s">
+        <v>142</v>
+      </c>
+      <c r="C58" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>149</v>
+      </c>
+      <c r="E58" t="s">
+        <v>147</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H58" t="s">
+        <v>161</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K58" t="s">
+        <v>163</v>
+      </c>
+      <c r="L58" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="N58" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="O58" t="s">
+        <v>170</v>
+      </c>
+      <c r="P58" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>226</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>229</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>311</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>345.0</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>1380.0</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>972.0</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>4140.0</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BL58" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BM58" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BN58" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BO58" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BP58" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="BQ58" t="n">
+        <v>272.0</v>
+      </c>
+      <c r="BR58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS58" t="n">
+        <v>260.0</v>
+      </c>
+      <c r="BT58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>272.0</v>
+      </c>
+      <c r="BV58" t="n">
+        <v>260.0</v>
+      </c>
+      <c r="BW58" t="n">
+        <v>532.0</v>
+      </c>
+      <c r="BX58" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="BY58" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="BZ58" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="CA58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB58" t="n">
+        <v>141.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>136</v>
+      </c>
+      <c r="B59" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>157</v>
+      </c>
+      <c r="E59" t="s">
+        <v>159</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H59" t="s">
+        <v>163</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K59" t="s">
+        <v>163</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="N59" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="O59" t="s">
+        <v>168</v>
+      </c>
+      <c r="P59" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>192</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>229</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>229</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>288</v>
+      </c>
+      <c r="AM59" t="s">
+        <v>318</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>227.0</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>2270.0</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>2400.0</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BL59" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BM59" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BN59" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BO59" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BP59" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="BQ59" t="n">
+        <v>202.0</v>
+      </c>
+      <c r="BR59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS59" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="BT59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>202.0</v>
+      </c>
+      <c r="BV59" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="BW59" t="n">
+        <v>366.0</v>
+      </c>
+      <c r="BX59" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="BY59" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="BZ59" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="CA59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB59" t="n">
+        <v>120.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>137</v>
+      </c>
+      <c r="B60" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>153</v>
+      </c>
+      <c r="E60" t="s">
+        <v>152</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H60" t="s">
+        <v>163</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K60" t="s">
+        <v>163</v>
+      </c>
+      <c r="L60" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="N60" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="O60" t="s">
+        <v>168</v>
+      </c>
+      <c r="P60" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>289</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>295</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>480.0</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BL60" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BM60" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BN60" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BO60" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BP60" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="BQ60" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="BR60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS60" t="n">
+        <v>218.0</v>
+      </c>
+      <c r="BT60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="BV60" t="n">
+        <v>218.0</v>
+      </c>
+      <c r="BW60" t="n">
+        <v>322.0</v>
+      </c>
+      <c r="BX60" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="BY60" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="BZ60" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="CA60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB60" t="n">
+        <v>54.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>138</v>
+      </c>
+      <c r="B61" t="s">
+        <v>142</v>
+      </c>
+      <c r="C61" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>160</v>
+      </c>
+      <c r="E61" t="s">
+        <v>148</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>161</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K61" t="s">
+        <v>163</v>
+      </c>
+      <c r="L61" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="N61" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="O61" t="s">
+        <v>168</v>
+      </c>
+      <c r="P61" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>200</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>229</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>290</v>
+      </c>
+      <c r="AM61" t="s">
+        <v>319</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>194.0</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>660.0</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>2134.0</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BL61" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BM61" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BN61" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BO61" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BP61" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="BQ61" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="BR61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS61" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="BT61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="BV61" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="BW61" t="n">
+        <v>361.0</v>
+      </c>
+      <c r="BX61" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="BY61" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BZ61" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CA61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB61" t="n">
+        <v>108.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>139</v>
+      </c>
+      <c r="B62" t="s">
+        <v>142</v>
+      </c>
+      <c r="C62" t="n" s="2">
+        <v>45564.0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>143</v>
+      </c>
+      <c r="E62" t="s">
+        <v>146</v>
+      </c>
+      <c r="F62" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H62" t="s">
+        <v>163</v>
+      </c>
+      <c r="I62" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K62" t="s">
+        <v>162</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="N62" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="O62" t="s">
+        <v>174</v>
+      </c>
+      <c r="P62" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>227</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>229</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>229</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>291</v>
+      </c>
+      <c r="AM62" t="s">
+        <v>300</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>330.0</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>2475.0</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>2640.0</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BL62" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BM62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN62" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO62" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BP62" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="BQ62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS62" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="BT62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV62" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="BW62" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="BX62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY62" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BZ62" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CA62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB62" t="n">
+        <v>168.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>140</v>
+      </c>
+      <c r="B63" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" t="n" s="2">
+        <v>45564.0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>144</v>
+      </c>
+      <c r="E63" t="s">
+        <v>156</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>162</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K63" t="s">
+        <v>163</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="N63" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="O63" t="s">
+        <v>168</v>
+      </c>
+      <c r="P63" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>200</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>292</v>
+      </c>
+      <c r="AM63" t="s">
+        <v>310</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>159.0</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>440.0</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>1749.0</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>880.0</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BL63" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BM63" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BN63" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO63" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BP63" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="BQ63" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="BR63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS63" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="BT63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="BV63" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="BW63" t="n">
+        <v>210.0</v>
+      </c>
+      <c r="BX63" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="BY63" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="BZ63" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="CA63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CB63" t="n">
+        <v>93.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>141</v>
+      </c>
+      <c r="B64" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" t="n" s="2">
+        <v>45564.0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>145</v>
+      </c>
+      <c r="E64" t="s">
+        <v>154</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>161</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K64" t="s">
+        <v>161</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="N64" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="O64" t="s">
+        <v>164</v>
+      </c>
+      <c r="P64" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V64" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>229</v>
+      </c>
+      <c r="AI64" t="s">
+        <v>229</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL64" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM64" t="s">
+        <v>320</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>211.0</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>1500.0</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>1120.0</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>2954.0</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>5600.0</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BL64" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BM64" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BN64" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BO64" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BP64" t="n">
+        <v>1600.0</v>
+      </c>
+      <c r="BQ64" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="BR64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS64" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="BT64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="BV64" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="BW64" t="n">
+        <v>409.0</v>
+      </c>
+      <c r="BX64" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="BY64" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="BZ64" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="CA64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CB64" t="n">
+        <v>177.0</v>
       </c>
     </row>
   </sheetData>

--- a/D2_SPREAD.xlsx
+++ b/D2_SPREAD.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="369">
   <si>
     <t>Div</t>
   </si>
@@ -440,6 +440,60 @@
     <t>63</t>
   </si>
   <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
     <t>D2</t>
   </si>
   <si>
@@ -539,6 +593,9 @@
     <t>4-2</t>
   </si>
   <si>
+    <t>0-3</t>
+  </si>
+  <si>
     <t>3-2</t>
   </si>
   <si>
@@ -572,9 +629,6 @@
     <t>3-5</t>
   </si>
   <si>
-    <t>0-3</t>
-  </si>
-  <si>
     <t>4-4</t>
   </si>
   <si>
@@ -701,6 +755,30 @@
     <t>7-7</t>
   </si>
   <si>
+    <t>3-6</t>
+  </si>
+  <si>
+    <t>9-6</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>7-2</t>
+  </si>
+  <si>
+    <t>5-5</t>
+  </si>
+  <si>
+    <t>4-7</t>
+  </si>
+  <si>
+    <t>5-12</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -896,6 +974,60 @@
     <t>2024-09-29-Hertha-Elversberg</t>
   </si>
   <si>
+    <t>2024-10-04-Karlsruhe-Darmstadt</t>
+  </si>
+  <si>
+    <t>2024-10-04-Paderborn-Regensburg</t>
+  </si>
+  <si>
+    <t>2024-10-05-Elversberg-Kaiserslautern</t>
+  </si>
+  <si>
+    <t>2024-10-05-FC Koln-Ulm</t>
+  </si>
+  <si>
+    <t>2024-10-05-Nurnberg-PreuÃŸen MÃ¼nster</t>
+  </si>
+  <si>
+    <t>2024-10-05-Schalke 04-Hertha</t>
+  </si>
+  <si>
+    <t>2024-10-06-Braunschweig-Hannover</t>
+  </si>
+  <si>
+    <t>2024-10-06-Fortuna Dusseldorf-Hamburg</t>
+  </si>
+  <si>
+    <t>2024-10-06-Magdeburg-Greuther Furth</t>
+  </si>
+  <si>
+    <t>2024-10-18-Darmstadt-FC Koln</t>
+  </si>
+  <si>
+    <t>2024-10-18-Hertha-Braunschweig</t>
+  </si>
+  <si>
+    <t>2024-10-19-Hannover-Schalke 04</t>
+  </si>
+  <si>
+    <t>2024-10-19-PreuÃŸen MÃ¼nster-Elversberg</t>
+  </si>
+  <si>
+    <t>2024-10-19-Regensburg-Fortuna Dusseldorf</t>
+  </si>
+  <si>
+    <t>2024-10-19-Kaiserslautern-Paderborn</t>
+  </si>
+  <si>
+    <t>2024-10-20-Greuther Furth-Nurnberg</t>
+  </si>
+  <si>
+    <t>2024-10-20-Hamburg-Magdeburg</t>
+  </si>
+  <si>
+    <t>2024-10-20-Ulm-Karlsruhe</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -975,6 +1107,18 @@
   </si>
   <si>
     <t>Nicolas Winter</t>
+  </si>
+  <si>
+    <t>Daniel Schlager</t>
+  </si>
+  <si>
+    <t>Martin Petersen</t>
+  </si>
+  <si>
+    <t>Bastian Dankert</t>
+  </si>
+  <si>
+    <t>Frank Willenborg</t>
   </si>
 </sst>
 </file>
@@ -1274,16 +1418,16 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C2" t="n" s="2">
         <v>45506.0</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="E2" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="F2" t="n">
         <v>1.0</v>
@@ -1292,7 +1436,7 @@
         <v>2.0</v>
       </c>
       <c r="H2" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="I2" t="n">
         <v>0.0</v>
@@ -1301,7 +1445,7 @@
         <v>2.0</v>
       </c>
       <c r="K2" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="L2" t="n">
         <v>2.41</v>
@@ -1313,10 +1457,10 @@
         <v>2.86</v>
       </c>
       <c r="O2" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="P2" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="Q2" t="n">
         <v>26.0</v>
@@ -1364,16 +1508,16 @@
         <v>25.0</v>
       </c>
       <c r="AF2" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="AG2" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH2" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AI2" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AJ2" t="n">
         <v>4.0</v>
@@ -1382,10 +1526,10 @@
         <v>0.0</v>
       </c>
       <c r="AL2" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="AM2" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="AN2" t="n">
         <v>3.0</v>
@@ -1516,16 +1660,16 @@
         <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C3" t="n" s="2">
         <v>45507.0</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="E3" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="F3" t="n">
         <v>2.0</v>
@@ -1534,7 +1678,7 @@
         <v>0.0</v>
       </c>
       <c r="H3" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="I3" t="n">
         <v>2.0</v>
@@ -1543,7 +1687,7 @@
         <v>0.0</v>
       </c>
       <c r="K3" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="L3" t="n">
         <v>1.65</v>
@@ -1555,10 +1699,10 @@
         <v>5.07</v>
       </c>
       <c r="O3" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="P3" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="Q3" t="n">
         <v>16.0</v>
@@ -1606,16 +1750,16 @@
         <v>29.0</v>
       </c>
       <c r="AF3" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="AG3" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH3" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AI3" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AJ3" t="n">
         <v>1.0</v>
@@ -1624,10 +1768,10 @@
         <v>0.0</v>
       </c>
       <c r="AL3" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="AM3" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="AN3" t="n">
         <v>2.0</v>
@@ -1758,16 +1902,16 @@
         <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C4" t="n" s="2">
         <v>45507.0</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="F4" t="n">
         <v>1.0</v>
@@ -1776,7 +1920,7 @@
         <v>2.0</v>
       </c>
       <c r="H4" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="I4" t="n">
         <v>0.0</v>
@@ -1785,7 +1929,7 @@
         <v>1.0</v>
       </c>
       <c r="K4" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="L4" t="n">
         <v>2.04</v>
@@ -1797,10 +1941,10 @@
         <v>3.46</v>
       </c>
       <c r="O4" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="P4" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="Q4" t="n">
         <v>10.0</v>
@@ -1848,16 +1992,16 @@
         <v>23.0</v>
       </c>
       <c r="AF4" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="AG4" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH4" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AI4" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AJ4" t="n">
         <v>3.0</v>
@@ -1866,10 +2010,10 @@
         <v>0.0</v>
       </c>
       <c r="AL4" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="AM4" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="AN4" t="n">
         <v>3.0</v>
@@ -2000,16 +2144,16 @@
         <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C5" t="n" s="2">
         <v>45507.0</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="E5" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="F5" t="n">
         <v>3.0</v>
@@ -2018,7 +2162,7 @@
         <v>2.0</v>
       </c>
       <c r="H5" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="I5" t="n">
         <v>1.0</v>
@@ -2027,7 +2171,7 @@
         <v>2.0</v>
       </c>
       <c r="K5" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="L5" t="n">
         <v>1.96</v>
@@ -2039,10 +2183,10 @@
         <v>3.68</v>
       </c>
       <c r="O5" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="P5" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="Q5" t="n">
         <v>15.0</v>
@@ -2090,16 +2234,16 @@
         <v>27.0</v>
       </c>
       <c r="AF5" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="AG5" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH5" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AI5" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AJ5" t="n">
         <v>6.0</v>
@@ -2108,10 +2252,10 @@
         <v>0.0</v>
       </c>
       <c r="AL5" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="AM5" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="AN5" t="n">
         <v>5.0</v>
@@ -2242,16 +2386,16 @@
         <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C6" t="n" s="2">
         <v>45507.0</v>
       </c>
       <c r="D6" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="E6" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="F6" t="n">
         <v>0.0</v>
@@ -2260,7 +2404,7 @@
         <v>0.0</v>
       </c>
       <c r="H6" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="I6" t="n">
         <v>0.0</v>
@@ -2269,7 +2413,7 @@
         <v>0.0</v>
       </c>
       <c r="K6" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="L6" t="n">
         <v>2.0</v>
@@ -2281,10 +2425,10 @@
         <v>3.69</v>
       </c>
       <c r="O6" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="P6" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="Q6" t="n">
         <v>21.0</v>
@@ -2332,16 +2476,16 @@
         <v>19.0</v>
       </c>
       <c r="AF6" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="AG6" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AH6" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AI6" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AJ6" t="n">
         <v>5.0</v>
@@ -2350,10 +2494,10 @@
         <v>0.0</v>
       </c>
       <c r="AL6" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="AM6" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="AN6" t="n">
         <v>0.0</v>
@@ -2484,16 +2628,16 @@
         <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C7" t="n" s="2">
         <v>45507.0</v>
       </c>
       <c r="D7" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="E7" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="F7" t="n">
         <v>5.0</v>
@@ -2502,7 +2646,7 @@
         <v>1.0</v>
       </c>
       <c r="H7" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="I7" t="n">
         <v>2.0</v>
@@ -2511,7 +2655,7 @@
         <v>1.0</v>
       </c>
       <c r="K7" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="L7" t="n">
         <v>1.75</v>
@@ -2523,10 +2667,10 @@
         <v>4.65</v>
       </c>
       <c r="O7" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="P7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="Q7" t="n">
         <v>14.0</v>
@@ -2574,16 +2718,16 @@
         <v>24.0</v>
       </c>
       <c r="AF7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="AG7" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH7" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AI7" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AJ7" t="n">
         <v>4.0</v>
@@ -2592,10 +2736,10 @@
         <v>0.0</v>
       </c>
       <c r="AL7" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="AM7" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="AN7" t="n">
         <v>6.0</v>
@@ -2726,16 +2870,16 @@
         <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C8" t="n" s="2">
         <v>45508.0</v>
       </c>
       <c r="D8" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="E8" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="F8" t="n">
         <v>0.0</v>
@@ -2744,7 +2888,7 @@
         <v>2.0</v>
       </c>
       <c r="H8" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="I8" t="n">
         <v>0.0</v>
@@ -2753,7 +2897,7 @@
         <v>0.0</v>
       </c>
       <c r="K8" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="L8" t="n">
         <v>2.79</v>
@@ -2765,10 +2909,10 @@
         <v>2.41</v>
       </c>
       <c r="O8" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="P8" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="Q8" t="n">
         <v>11.0</v>
@@ -2816,16 +2960,16 @@
         <v>23.0</v>
       </c>
       <c r="AF8" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="AG8" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH8" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AI8" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AJ8" t="n">
         <v>4.0</v>
@@ -2834,10 +2978,10 @@
         <v>1.0</v>
       </c>
       <c r="AL8" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="AM8" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="AN8" t="n">
         <v>2.0</v>
@@ -2968,16 +3112,16 @@
         <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C9" t="n" s="2">
         <v>45508.0</v>
       </c>
       <c r="D9" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="E9" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="F9" t="n">
         <v>3.0</v>
@@ -2986,7 +3130,7 @@
         <v>1.0</v>
       </c>
       <c r="H9" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="I9" t="n">
         <v>1.0</v>
@@ -2995,7 +3139,7 @@
         <v>1.0</v>
       </c>
       <c r="K9" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="L9" t="n">
         <v>1.82</v>
@@ -3007,10 +3151,10 @@
         <v>4.11</v>
       </c>
       <c r="O9" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="P9" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="Q9" t="n">
         <v>22.0</v>
@@ -3058,16 +3202,16 @@
         <v>20.0</v>
       </c>
       <c r="AF9" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="AG9" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH9" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AI9" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AJ9" t="n">
         <v>3.0</v>
@@ -3076,10 +3220,10 @@
         <v>0.0</v>
       </c>
       <c r="AL9" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="AM9" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="AN9" t="n">
         <v>4.0</v>
@@ -3210,16 +3354,16 @@
         <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C10" t="n" s="2">
         <v>45508.0</v>
       </c>
       <c r="D10" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="E10" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="F10" t="n">
         <v>1.0</v>
@@ -3228,7 +3372,7 @@
         <v>2.0</v>
       </c>
       <c r="H10" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="I10" t="n">
         <v>0.0</v>
@@ -3237,7 +3381,7 @@
         <v>0.0</v>
       </c>
       <c r="K10" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="L10" t="n">
         <v>2.92</v>
@@ -3249,10 +3393,10 @@
         <v>2.42</v>
       </c>
       <c r="O10" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="P10" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="Q10" t="n">
         <v>12.0</v>
@@ -3300,16 +3444,16 @@
         <v>28.0</v>
       </c>
       <c r="AF10" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AG10" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH10" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AI10" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AJ10" t="n">
         <v>5.0</v>
@@ -3318,10 +3462,10 @@
         <v>0.0</v>
       </c>
       <c r="AL10" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="AM10" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="AN10" t="n">
         <v>3.0</v>
@@ -3452,16 +3596,16 @@
         <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C11" t="n" s="2">
         <v>45513.0</v>
       </c>
       <c r="D11" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="E11" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="F11" t="n">
         <v>2.0</v>
@@ -3470,7 +3614,7 @@
         <v>2.0</v>
       </c>
       <c r="H11" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="I11" t="n">
         <v>1.0</v>
@@ -3479,7 +3623,7 @@
         <v>2.0</v>
       </c>
       <c r="K11" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="L11" t="n">
         <v>2.19</v>
@@ -3491,10 +3635,10 @@
         <v>3.22</v>
       </c>
       <c r="O11" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="P11" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="Q11" t="n">
         <v>13.0</v>
@@ -3542,16 +3686,16 @@
         <v>24.0</v>
       </c>
       <c r="AF11" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="AG11" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH11" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AI11" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AJ11" t="n">
         <v>4.0</v>
@@ -3560,10 +3704,10 @@
         <v>0.0</v>
       </c>
       <c r="AL11" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="AM11" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="AN11" t="n">
         <v>4.0</v>
@@ -3694,16 +3838,16 @@
         <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C12" t="n" s="2">
         <v>45513.0</v>
       </c>
       <c r="D12" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="E12" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="F12" t="n">
         <v>1.0</v>
@@ -3712,7 +3856,7 @@
         <v>0.0</v>
       </c>
       <c r="H12" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="I12" t="n">
         <v>1.0</v>
@@ -3721,7 +3865,7 @@
         <v>0.0</v>
       </c>
       <c r="K12" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="L12" t="n">
         <v>2.59</v>
@@ -3733,10 +3877,10 @@
         <v>2.8</v>
       </c>
       <c r="O12" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="P12" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="Q12" t="n">
         <v>8.0</v>
@@ -3784,16 +3928,16 @@
         <v>38.0</v>
       </c>
       <c r="AF12" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="AG12" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AH12" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AI12" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AJ12" t="n">
         <v>5.0</v>
@@ -3802,10 +3946,10 @@
         <v>0.0</v>
       </c>
       <c r="AL12" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="AM12" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="AN12" t="n">
         <v>1.0</v>
@@ -3936,16 +4080,16 @@
         <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C13" t="n" s="2">
         <v>45514.0</v>
       </c>
       <c r="D13" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="E13" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="F13" t="n">
         <v>2.0</v>
@@ -3954,7 +4098,7 @@
         <v>2.0</v>
       </c>
       <c r="H13" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="I13" t="n">
         <v>0.0</v>
@@ -3963,7 +4107,7 @@
         <v>1.0</v>
       </c>
       <c r="K13" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="L13" t="n">
         <v>3.42</v>
@@ -3975,10 +4119,10 @@
         <v>2.04</v>
       </c>
       <c r="O13" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="P13" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="Q13" t="n">
         <v>10.0</v>
@@ -4026,16 +4170,16 @@
         <v>26.0</v>
       </c>
       <c r="AF13" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="AG13" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH13" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AI13" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AJ13" t="n">
         <v>5.0</v>
@@ -4044,10 +4188,10 @@
         <v>0.0</v>
       </c>
       <c r="AL13" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="AM13" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="AN13" t="n">
         <v>4.0</v>
@@ -4178,16 +4322,16 @@
         <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C14" t="n" s="2">
         <v>45514.0</v>
       </c>
       <c r="D14" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="E14" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="F14" t="n">
         <v>0.0</v>
@@ -4196,7 +4340,7 @@
         <v>0.0</v>
       </c>
       <c r="H14" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="I14" t="n">
         <v>0.0</v>
@@ -4205,7 +4349,7 @@
         <v>0.0</v>
       </c>
       <c r="K14" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="L14" t="n">
         <v>1.84</v>
@@ -4217,10 +4361,10 @@
         <v>4.01</v>
       </c>
       <c r="O14" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="P14" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="Q14" t="n">
         <v>20.0</v>
@@ -4268,16 +4412,16 @@
         <v>12.0</v>
       </c>
       <c r="AF14" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="AG14" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AH14" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AI14" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AJ14" t="n">
         <v>3.0</v>
@@ -4286,10 +4430,10 @@
         <v>0.0</v>
       </c>
       <c r="AL14" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="AM14" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="AN14" t="n">
         <v>0.0</v>
@@ -4420,16 +4564,16 @@
         <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C15" t="n" s="2">
         <v>45514.0</v>
       </c>
       <c r="D15" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="E15" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="F15" t="n">
         <v>3.0</v>
@@ -4438,7 +4582,7 @@
         <v>1.0</v>
       </c>
       <c r="H15" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="I15" t="n">
         <v>0.0</v>
@@ -4447,7 +4591,7 @@
         <v>1.0</v>
       </c>
       <c r="K15" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="L15" t="n">
         <v>3.04</v>
@@ -4459,10 +4603,10 @@
         <v>2.28</v>
       </c>
       <c r="O15" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="P15" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="Q15" t="n">
         <v>8.0</v>
@@ -4510,16 +4654,16 @@
         <v>23.0</v>
       </c>
       <c r="AF15" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="AG15" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH15" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AI15" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AJ15" t="n">
         <v>7.0</v>
@@ -4528,10 +4672,10 @@
         <v>2.0</v>
       </c>
       <c r="AL15" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="AM15" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="AN15" t="n">
         <v>4.0</v>
@@ -4662,16 +4806,16 @@
         <v>93</v>
       </c>
       <c r="B16" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C16" t="n" s="2">
         <v>45514.0</v>
       </c>
       <c r="D16" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="E16" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="F16" t="n">
         <v>1.0</v>
@@ -4680,7 +4824,7 @@
         <v>1.0</v>
       </c>
       <c r="H16" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="I16" t="n">
         <v>1.0</v>
@@ -4689,7 +4833,7 @@
         <v>0.0</v>
       </c>
       <c r="K16" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="L16" t="n">
         <v>1.84</v>
@@ -4701,10 +4845,10 @@
         <v>3.79</v>
       </c>
       <c r="O16" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="P16" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="Q16" t="n">
         <v>13.0</v>
@@ -4752,16 +4896,16 @@
         <v>17.0</v>
       </c>
       <c r="AF16" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AG16" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH16" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AI16" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AJ16" t="n">
         <v>4.0</v>
@@ -4770,10 +4914,10 @@
         <v>0.0</v>
       </c>
       <c r="AL16" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="AM16" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="AN16" t="n">
         <v>2.0</v>
@@ -4904,16 +5048,16 @@
         <v>94</v>
       </c>
       <c r="B17" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C17" t="n" s="2">
         <v>45515.0</v>
       </c>
       <c r="D17" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="E17" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="F17" t="n">
         <v>1.0</v>
@@ -4922,7 +5066,7 @@
         <v>3.0</v>
       </c>
       <c r="H17" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="I17" t="n">
         <v>0.0</v>
@@ -4931,7 +5075,7 @@
         <v>1.0</v>
       </c>
       <c r="K17" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="L17" t="n">
         <v>2.63</v>
@@ -4943,10 +5087,10 @@
         <v>2.67</v>
       </c>
       <c r="O17" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="P17" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="Q17" t="n">
         <v>20.0</v>
@@ -4994,16 +5138,16 @@
         <v>24.0</v>
       </c>
       <c r="AF17" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AG17" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH17" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AI17" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AJ17" t="n">
         <v>1.0</v>
@@ -5012,10 +5156,10 @@
         <v>0.0</v>
       </c>
       <c r="AL17" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="AM17" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="AN17" t="n">
         <v>4.0</v>
@@ -5146,16 +5290,16 @@
         <v>95</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C18" t="n" s="2">
         <v>45515.0</v>
       </c>
       <c r="D18" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="E18" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F18" t="n">
         <v>3.0</v>
@@ -5164,7 +5308,7 @@
         <v>1.0</v>
       </c>
       <c r="H18" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="I18" t="n">
         <v>0.0</v>
@@ -5173,7 +5317,7 @@
         <v>1.0</v>
       </c>
       <c r="K18" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="L18" t="n">
         <v>1.88</v>
@@ -5185,10 +5329,10 @@
         <v>3.94</v>
       </c>
       <c r="O18" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="P18" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="Q18" t="n">
         <v>18.0</v>
@@ -5236,16 +5380,16 @@
         <v>19.0</v>
       </c>
       <c r="AF18" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="AG18" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH18" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AI18" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AJ18" t="n">
         <v>2.0</v>
@@ -5254,10 +5398,10 @@
         <v>0.0</v>
       </c>
       <c r="AL18" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="AM18" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="AN18" t="n">
         <v>4.0</v>
@@ -5388,16 +5532,16 @@
         <v>96</v>
       </c>
       <c r="B19" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C19" t="n" s="2">
         <v>45515.0</v>
       </c>
       <c r="D19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="E19" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="F19" t="n">
         <v>0.0</v>
@@ -5406,7 +5550,7 @@
         <v>0.0</v>
       </c>
       <c r="H19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="I19" t="n">
         <v>0.0</v>
@@ -5415,7 +5559,7 @@
         <v>0.0</v>
       </c>
       <c r="K19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="L19" t="n">
         <v>3.23</v>
@@ -5427,10 +5571,10 @@
         <v>2.12</v>
       </c>
       <c r="O19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="P19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="Q19" t="n">
         <v>11.0</v>
@@ -5478,16 +5622,16 @@
         <v>24.0</v>
       </c>
       <c r="AF19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="AG19" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AH19" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AI19" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AJ19" t="n">
         <v>4.0</v>
@@ -5496,10 +5640,10 @@
         <v>0.0</v>
       </c>
       <c r="AL19" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="AM19" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="AN19" t="n">
         <v>0.0</v>
@@ -5630,16 +5774,16 @@
         <v>97</v>
       </c>
       <c r="B20" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C20" t="n" s="2">
         <v>45527.0</v>
       </c>
       <c r="D20" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="E20" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="F20" t="n">
         <v>1.0</v>
@@ -5648,7 +5792,7 @@
         <v>0.0</v>
       </c>
       <c r="H20" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="I20" t="n">
         <v>0.0</v>
@@ -5657,7 +5801,7 @@
         <v>0.0</v>
       </c>
       <c r="K20" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="L20" t="n">
         <v>2.38</v>
@@ -5669,10 +5813,10 @@
         <v>2.88</v>
       </c>
       <c r="O20" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="P20" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="Q20" t="n">
         <v>9.0</v>
@@ -5720,16 +5864,16 @@
         <v>38.0</v>
       </c>
       <c r="AF20" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="AG20" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AH20" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AI20" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AJ20" t="n">
         <v>8.0</v>
@@ -5738,10 +5882,10 @@
         <v>1.0</v>
       </c>
       <c r="AL20" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="AM20" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="AN20" t="n">
         <v>1.0</v>
@@ -5872,16 +6016,16 @@
         <v>98</v>
       </c>
       <c r="B21" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C21" t="n" s="2">
         <v>45527.0</v>
       </c>
       <c r="D21" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="E21" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="F21" t="n">
         <v>3.0</v>
@@ -5890,7 +6034,7 @@
         <v>2.0</v>
       </c>
       <c r="H21" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="I21" t="n">
         <v>1.0</v>
@@ -5899,7 +6043,7 @@
         <v>1.0</v>
       </c>
       <c r="K21" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="L21" t="n">
         <v>1.62</v>
@@ -5911,10 +6055,10 @@
         <v>5.06</v>
       </c>
       <c r="O21" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="P21" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="Q21" t="n">
         <v>11.0</v>
@@ -5962,16 +6106,16 @@
         <v>14.0</v>
       </c>
       <c r="AF21" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="AG21" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH21" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AI21" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AJ21" t="n">
         <v>2.0</v>
@@ -5980,10 +6124,10 @@
         <v>0.0</v>
       </c>
       <c r="AL21" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="AM21" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="AN21" t="n">
         <v>5.0</v>
@@ -6114,16 +6258,16 @@
         <v>99</v>
       </c>
       <c r="B22" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C22" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D22" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="E22" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="F22" t="n">
         <v>1.0</v>
@@ -6132,7 +6276,7 @@
         <v>1.0</v>
       </c>
       <c r="H22" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="I22" t="n">
         <v>0.0</v>
@@ -6141,7 +6285,7 @@
         <v>0.0</v>
       </c>
       <c r="K22" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="L22" t="n">
         <v>2.59</v>
@@ -6153,10 +6297,10 @@
         <v>2.62</v>
       </c>
       <c r="O22" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="P22" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="Q22" t="n">
         <v>14.0</v>
@@ -6204,16 +6348,16 @@
         <v>28.0</v>
       </c>
       <c r="AF22" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="AG22" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH22" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AI22" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AJ22" t="n">
         <v>6.0</v>
@@ -6222,10 +6366,10 @@
         <v>0.0</v>
       </c>
       <c r="AL22" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="AM22" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="AN22" t="n">
         <v>2.0</v>
@@ -6356,16 +6500,16 @@
         <v>100</v>
       </c>
       <c r="B23" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C23" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D23" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="E23" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="F23" t="n">
         <v>2.0</v>
@@ -6374,7 +6518,7 @@
         <v>0.0</v>
       </c>
       <c r="H23" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="I23" t="n">
         <v>0.0</v>
@@ -6383,7 +6527,7 @@
         <v>0.0</v>
       </c>
       <c r="K23" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="L23" t="n">
         <v>1.56</v>
@@ -6395,10 +6539,10 @@
         <v>5.78</v>
       </c>
       <c r="O23" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="P23" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="Q23" t="n">
         <v>11.0</v>
@@ -6446,16 +6590,16 @@
         <v>21.0</v>
       </c>
       <c r="AF23" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="AG23" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH23" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AI23" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AJ23" t="n">
         <v>6.0</v>
@@ -6464,10 +6608,10 @@
         <v>1.0</v>
       </c>
       <c r="AL23" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="AM23" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="AN23" t="n">
         <v>2.0</v>
@@ -6598,16 +6742,16 @@
         <v>101</v>
       </c>
       <c r="B24" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C24" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D24" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="E24" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="F24" t="n">
         <v>0.0</v>
@@ -6616,7 +6760,7 @@
         <v>1.0</v>
       </c>
       <c r="H24" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="I24" t="n">
         <v>0.0</v>
@@ -6625,7 +6769,7 @@
         <v>0.0</v>
       </c>
       <c r="K24" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="L24" t="n">
         <v>2.91</v>
@@ -6637,10 +6781,10 @@
         <v>2.34</v>
       </c>
       <c r="O24" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="P24" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="Q24" t="n">
         <v>14.0</v>
@@ -6688,16 +6832,16 @@
         <v>33.0</v>
       </c>
       <c r="AF24" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="AG24" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AH24" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AI24" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AJ24" t="n">
         <v>8.0</v>
@@ -6706,10 +6850,10 @@
         <v>0.0</v>
       </c>
       <c r="AL24" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="AM24" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="AN24" t="n">
         <v>1.0</v>
@@ -6840,16 +6984,16 @@
         <v>102</v>
       </c>
       <c r="B25" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C25" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D25" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="E25" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="F25" t="n">
         <v>5.0</v>
@@ -6858,7 +7002,7 @@
         <v>0.0</v>
       </c>
       <c r="H25" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="I25" t="n">
         <v>2.0</v>
@@ -6867,7 +7011,7 @@
         <v>0.0</v>
       </c>
       <c r="K25" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="L25" t="n">
         <v>1.45</v>
@@ -6879,10 +7023,10 @@
         <v>6.13</v>
       </c>
       <c r="O25" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="P25" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="Q25" t="n">
         <v>22.0</v>
@@ -6930,16 +7074,16 @@
         <v>21.0</v>
       </c>
       <c r="AF25" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="AG25" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH25" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AI25" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AJ25" t="n">
         <v>3.0</v>
@@ -6948,10 +7092,10 @@
         <v>0.0</v>
       </c>
       <c r="AL25" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="AM25" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="AN25" t="n">
         <v>5.0</v>
@@ -7082,16 +7226,16 @@
         <v>103</v>
       </c>
       <c r="B26" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C26" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D26" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="E26" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="F26" t="n">
         <v>1.0</v>
@@ -7100,7 +7244,7 @@
         <v>1.0</v>
       </c>
       <c r="H26" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="I26" t="n">
         <v>1.0</v>
@@ -7109,7 +7253,7 @@
         <v>0.0</v>
       </c>
       <c r="K26" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="L26" t="n">
         <v>2.2</v>
@@ -7121,10 +7265,10 @@
         <v>3.1</v>
       </c>
       <c r="O26" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="P26" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="Q26" t="n">
         <v>19.0</v>
@@ -7172,16 +7316,16 @@
         <v>24.0</v>
       </c>
       <c r="AF26" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="AG26" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH26" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AI26" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AJ26" t="n">
         <v>5.0</v>
@@ -7190,10 +7334,10 @@
         <v>0.0</v>
       </c>
       <c r="AL26" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="AM26" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="AN26" t="n">
         <v>2.0</v>
@@ -7324,16 +7468,16 @@
         <v>104</v>
       </c>
       <c r="B27" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C27" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D27" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="E27" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="F27" t="n">
         <v>2.0</v>
@@ -7342,7 +7486,7 @@
         <v>2.0</v>
       </c>
       <c r="H27" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="I27" t="n">
         <v>2.0</v>
@@ -7351,7 +7495,7 @@
         <v>1.0</v>
       </c>
       <c r="K27" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="L27" t="n">
         <v>2.47</v>
@@ -7363,10 +7507,10 @@
         <v>2.69</v>
       </c>
       <c r="O27" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="P27" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="Q27" t="n">
         <v>14.0</v>
@@ -7414,16 +7558,16 @@
         <v>21.0</v>
       </c>
       <c r="AF27" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="AG27" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH27" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AI27" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AJ27" t="n">
         <v>6.0</v>
@@ -7432,10 +7576,10 @@
         <v>0.0</v>
       </c>
       <c r="AL27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="AM27" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="AN27" t="n">
         <v>4.0</v>
@@ -7566,16 +7710,16 @@
         <v>105</v>
       </c>
       <c r="B28" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C28" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D28" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="E28" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="F28" t="n">
         <v>1.0</v>
@@ -7584,7 +7728,7 @@
         <v>2.0</v>
       </c>
       <c r="H28" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="I28" t="n">
         <v>1.0</v>
@@ -7593,7 +7737,7 @@
         <v>0.0</v>
       </c>
       <c r="K28" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="L28" t="n">
         <v>4.01</v>
@@ -7605,10 +7749,10 @@
         <v>1.88</v>
       </c>
       <c r="O28" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="P28" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="Q28" t="n">
         <v>21.0</v>
@@ -7656,16 +7800,16 @@
         <v>23.0</v>
       </c>
       <c r="AF28" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="AG28" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH28" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AI28" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AJ28" t="n">
         <v>7.0</v>
@@ -7674,10 +7818,10 @@
         <v>0.0</v>
       </c>
       <c r="AL28" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="AM28" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="AN28" t="n">
         <v>3.0</v>
@@ -7808,16 +7952,16 @@
         <v>106</v>
       </c>
       <c r="B29" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C29" t="n" s="2">
         <v>45534.0</v>
       </c>
       <c r="D29" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="E29" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="F29" t="n">
         <v>1.0</v>
@@ -7826,7 +7970,7 @@
         <v>0.0</v>
       </c>
       <c r="H29" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="I29" t="n">
         <v>0.0</v>
@@ -7835,7 +7979,7 @@
         <v>0.0</v>
       </c>
       <c r="K29" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="L29" t="n">
         <v>2.37</v>
@@ -7847,10 +7991,10 @@
         <v>3.09</v>
       </c>
       <c r="O29" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="P29" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="Q29" t="n">
         <v>23.0</v>
@@ -7898,16 +8042,16 @@
         <v>23.0</v>
       </c>
       <c r="AF29" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="AG29" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AH29" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AI29" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AJ29" t="n">
         <v>8.0</v>
@@ -7916,10 +8060,10 @@
         <v>0.0</v>
       </c>
       <c r="AL29" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="AM29" t="s">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="AN29" t="n">
         <v>1.0</v>
@@ -8050,16 +8194,16 @@
         <v>107</v>
       </c>
       <c r="B30" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C30" t="n" s="2">
         <v>45534.0</v>
       </c>
       <c r="D30" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="E30" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="F30" t="n">
         <v>0.0</v>
@@ -8068,7 +8212,7 @@
         <v>4.0</v>
       </c>
       <c r="H30" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="I30" t="n">
         <v>0.0</v>
@@ -8077,7 +8221,7 @@
         <v>1.0</v>
       </c>
       <c r="K30" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="L30" t="n">
         <v>2.8</v>
@@ -8089,10 +8233,10 @@
         <v>2.56</v>
       </c>
       <c r="O30" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="P30" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="Q30" t="n">
         <v>17.0</v>
@@ -8140,16 +8284,16 @@
         <v>22.0</v>
       </c>
       <c r="AF30" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="AG30" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH30" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AI30" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AJ30" t="n">
         <v>5.0</v>
@@ -8158,10 +8302,10 @@
         <v>0.0</v>
       </c>
       <c r="AL30" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="AM30" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="AN30" t="n">
         <v>4.0</v>
@@ -8292,16 +8436,16 @@
         <v>108</v>
       </c>
       <c r="B31" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C31" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D31" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="E31" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F31" t="n">
         <v>4.0</v>
@@ -8310,7 +8454,7 @@
         <v>0.0</v>
       </c>
       <c r="H31" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="I31" t="n">
         <v>2.0</v>
@@ -8319,7 +8463,7 @@
         <v>0.0</v>
       </c>
       <c r="K31" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="L31" t="n">
         <v>2.37</v>
@@ -8331,10 +8475,10 @@
         <v>2.85</v>
       </c>
       <c r="O31" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="P31" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="Q31" t="n">
         <v>17.0</v>
@@ -8382,16 +8526,16 @@
         <v>27.0</v>
       </c>
       <c r="AF31" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="AG31" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH31" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AI31" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AJ31" t="n">
         <v>5.0</v>
@@ -8400,10 +8544,10 @@
         <v>0.0</v>
       </c>
       <c r="AL31" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="AM31" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="AN31" t="n">
         <v>4.0</v>
@@ -8534,16 +8678,16 @@
         <v>109</v>
       </c>
       <c r="B32" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C32" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D32" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="E32" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="F32" t="n">
         <v>4.0</v>
@@ -8552,7 +8696,7 @@
         <v>1.0</v>
       </c>
       <c r="H32" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="I32" t="n">
         <v>3.0</v>
@@ -8561,7 +8705,7 @@
         <v>0.0</v>
       </c>
       <c r="K32" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="L32" t="n">
         <v>1.39</v>
@@ -8573,10 +8717,10 @@
         <v>7.22</v>
       </c>
       <c r="O32" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="P32" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="Q32" t="n">
         <v>10.0</v>
@@ -8624,16 +8768,16 @@
         <v>21.0</v>
       </c>
       <c r="AF32" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="AG32" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH32" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AI32" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AJ32" t="n">
         <v>0.0</v>
@@ -8642,10 +8786,10 @@
         <v>0.0</v>
       </c>
       <c r="AL32" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="AM32" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="AN32" t="n">
         <v>5.0</v>
@@ -8776,16 +8920,16 @@
         <v>110</v>
       </c>
       <c r="B33" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C33" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D33" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="E33" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="F33" t="n">
         <v>0.0</v>
@@ -8794,7 +8938,7 @@
         <v>4.0</v>
       </c>
       <c r="H33" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="I33" t="n">
         <v>0.0</v>
@@ -8803,7 +8947,7 @@
         <v>1.0</v>
       </c>
       <c r="K33" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="L33" t="n">
         <v>2.68</v>
@@ -8815,10 +8959,10 @@
         <v>2.58</v>
       </c>
       <c r="O33" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="P33" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="Q33" t="n">
         <v>7.0</v>
@@ -8866,16 +9010,16 @@
         <v>19.0</v>
       </c>
       <c r="AF33" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="AG33" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH33" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AI33" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AJ33" t="n">
         <v>1.0</v>
@@ -8884,10 +9028,10 @@
         <v>0.0</v>
       </c>
       <c r="AL33" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="AM33" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="AN33" t="n">
         <v>4.0</v>
@@ -9018,16 +9162,16 @@
         <v>111</v>
       </c>
       <c r="B34" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C34" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D34" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="E34" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="F34" t="n">
         <v>3.0</v>
@@ -9036,7 +9180,7 @@
         <v>4.0</v>
       </c>
       <c r="H34" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="I34" t="n">
         <v>2.0</v>
@@ -9045,7 +9189,7 @@
         <v>1.0</v>
       </c>
       <c r="K34" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="L34" t="n">
         <v>2.33</v>
@@ -9057,10 +9201,10 @@
         <v>2.82</v>
       </c>
       <c r="O34" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="P34" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="Q34" t="n">
         <v>24.0</v>
@@ -9108,16 +9252,16 @@
         <v>16.0</v>
       </c>
       <c r="AF34" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="AG34" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH34" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AI34" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AJ34" t="n">
         <v>2.0</v>
@@ -9126,10 +9270,10 @@
         <v>0.0</v>
       </c>
       <c r="AL34" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="AM34" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="AN34" t="n">
         <v>7.0</v>
@@ -9260,16 +9404,16 @@
         <v>112</v>
       </c>
       <c r="B35" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C35" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D35" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="E35" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="F35" t="n">
         <v>1.0</v>
@@ -9278,7 +9422,7 @@
         <v>2.0</v>
       </c>
       <c r="H35" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="I35" t="n">
         <v>1.0</v>
@@ -9287,7 +9431,7 @@
         <v>0.0</v>
       </c>
       <c r="K35" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="L35" t="n">
         <v>3.42</v>
@@ -9299,10 +9443,10 @@
         <v>1.99</v>
       </c>
       <c r="O35" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="P35" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="Q35" t="n">
         <v>7.0</v>
@@ -9350,16 +9494,16 @@
         <v>19.0</v>
       </c>
       <c r="AF35" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="AG35" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH35" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AI35" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AJ35" t="n">
         <v>3.0</v>
@@ -9368,10 +9512,10 @@
         <v>0.0</v>
       </c>
       <c r="AL35" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="AM35" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="AN35" t="n">
         <v>3.0</v>
@@ -9502,16 +9646,16 @@
         <v>113</v>
       </c>
       <c r="B36" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C36" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D36" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="E36" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="F36" t="n">
         <v>0.0</v>
@@ -9520,7 +9664,7 @@
         <v>0.0</v>
       </c>
       <c r="H36" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="I36" t="n">
         <v>0.0</v>
@@ -9529,7 +9673,7 @@
         <v>0.0</v>
       </c>
       <c r="K36" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="L36" t="n">
         <v>1.53</v>
@@ -9541,10 +9685,10 @@
         <v>5.51</v>
       </c>
       <c r="O36" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="P36" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="Q36" t="n">
         <v>18.0</v>
@@ -9592,16 +9736,16 @@
         <v>25.0</v>
       </c>
       <c r="AF36" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="AG36" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AH36" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AI36" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AJ36" t="n">
         <v>6.0</v>
@@ -9610,10 +9754,10 @@
         <v>0.0</v>
       </c>
       <c r="AL36" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="AM36" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="AN36" t="n">
         <v>0.0</v>
@@ -9744,16 +9888,16 @@
         <v>114</v>
       </c>
       <c r="B37" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C37" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D37" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="E37" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="F37" t="n">
         <v>1.0</v>
@@ -9762,7 +9906,7 @@
         <v>3.0</v>
       </c>
       <c r="H37" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="I37" t="n">
         <v>0.0</v>
@@ -9771,7 +9915,7 @@
         <v>2.0</v>
       </c>
       <c r="K37" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="L37" t="n">
         <v>3.13</v>
@@ -9783,10 +9927,10 @@
         <v>2.17</v>
       </c>
       <c r="O37" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="P37" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="Q37" t="n">
         <v>15.0</v>
@@ -9834,16 +9978,16 @@
         <v>23.0</v>
       </c>
       <c r="AF37" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="AG37" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH37" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AI37" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AJ37" t="n">
         <v>6.0</v>
@@ -9852,10 +9996,10 @@
         <v>0.0</v>
       </c>
       <c r="AL37" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="AM37" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
       <c r="AN37" t="n">
         <v>4.0</v>
@@ -9986,16 +10130,16 @@
         <v>115</v>
       </c>
       <c r="B38" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C38" t="n" s="2">
         <v>45548.0</v>
       </c>
       <c r="D38" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="E38" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="F38" t="n">
         <v>2.0</v>
@@ -10004,7 +10148,7 @@
         <v>0.0</v>
       </c>
       <c r="H38" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="I38" t="n">
         <v>1.0</v>
@@ -10013,7 +10157,7 @@
         <v>0.0</v>
       </c>
       <c r="K38" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="L38" t="n">
         <v>1.9</v>
@@ -10025,10 +10169,10 @@
         <v>3.79</v>
       </c>
       <c r="O38" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="P38" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="Q38" t="n">
         <v>14.0</v>
@@ -10076,16 +10220,16 @@
         <v>22.0</v>
       </c>
       <c r="AF38" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="AG38" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH38" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AI38" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AJ38" t="n">
         <v>5.0</v>
@@ -10094,16 +10238,16 @@
         <v>0.0</v>
       </c>
       <c r="AL38" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="AM38" t="s">
-        <v>304</v>
+        <v>348</v>
       </c>
       <c r="AN38" t="n">
         <v>2.0</v>
       </c>
       <c r="AO38" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AP38" t="n">
         <v>0.6</v>
@@ -10228,16 +10372,16 @@
         <v>116</v>
       </c>
       <c r="B39" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C39" t="n" s="2">
         <v>45548.0</v>
       </c>
       <c r="D39" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="E39" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="F39" t="n">
         <v>3.0</v>
@@ -10246,7 +10390,7 @@
         <v>3.0</v>
       </c>
       <c r="H39" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="I39" t="n">
         <v>1.0</v>
@@ -10255,7 +10399,7 @@
         <v>1.0</v>
       </c>
       <c r="K39" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="L39" t="n">
         <v>3.3</v>
@@ -10267,10 +10411,10 @@
         <v>2.08</v>
       </c>
       <c r="O39" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="P39" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="Q39" t="n">
         <v>11.0</v>
@@ -10318,16 +10462,16 @@
         <v>16.0</v>
       </c>
       <c r="AF39" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="AG39" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH39" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AI39" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AJ39" t="n">
         <v>5.0</v>
@@ -10336,10 +10480,10 @@
         <v>0.0</v>
       </c>
       <c r="AL39" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="AM39" t="s">
-        <v>305</v>
+        <v>349</v>
       </c>
       <c r="AN39" t="n">
         <v>6.0</v>
@@ -10470,16 +10614,16 @@
         <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C40" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D40" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="E40" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="F40" t="n">
         <v>1.0</v>
@@ -10488,7 +10632,7 @@
         <v>1.0</v>
       </c>
       <c r="H40" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="I40" t="n">
         <v>1.0</v>
@@ -10497,7 +10641,7 @@
         <v>0.0</v>
       </c>
       <c r="K40" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="L40" t="n">
         <v>1.79</v>
@@ -10509,10 +10653,10 @@
         <v>4.06</v>
       </c>
       <c r="O40" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="P40" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="Q40" t="n">
         <v>15.0</v>
@@ -10560,16 +10704,16 @@
         <v>23.0</v>
       </c>
       <c r="AF40" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="AG40" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH40" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AI40" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AJ40" t="n">
         <v>8.0</v>
@@ -10578,10 +10722,10 @@
         <v>0.0</v>
       </c>
       <c r="AL40" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="AM40" t="s">
-        <v>306</v>
+        <v>350</v>
       </c>
       <c r="AN40" t="n">
         <v>2.0</v>
@@ -10712,16 +10856,16 @@
         <v>118</v>
       </c>
       <c r="B41" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C41" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D41" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="E41" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="F41" t="n">
         <v>3.0</v>
@@ -10730,7 +10874,7 @@
         <v>1.0</v>
       </c>
       <c r="H41" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="I41" t="n">
         <v>1.0</v>
@@ -10739,7 +10883,7 @@
         <v>0.0</v>
       </c>
       <c r="K41" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="L41" t="n">
         <v>1.86</v>
@@ -10751,10 +10895,10 @@
         <v>3.88</v>
       </c>
       <c r="O41" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="P41" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="Q41" t="n">
         <v>18.0</v>
@@ -10802,16 +10946,16 @@
         <v>28.0</v>
       </c>
       <c r="AF41" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="AG41" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH41" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AI41" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AJ41" t="n">
         <v>8.0</v>
@@ -10820,10 +10964,10 @@
         <v>0.0</v>
       </c>
       <c r="AL41" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="AM41" t="s">
-        <v>307</v>
+        <v>351</v>
       </c>
       <c r="AN41" t="n">
         <v>4.0</v>
@@ -10954,16 +11098,16 @@
         <v>119</v>
       </c>
       <c r="B42" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C42" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D42" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="E42" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="F42" t="n">
         <v>1.0</v>
@@ -10972,7 +11116,7 @@
         <v>2.0</v>
       </c>
       <c r="H42" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="I42" t="n">
         <v>0.0</v>
@@ -10981,7 +11125,7 @@
         <v>0.0</v>
       </c>
       <c r="K42" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="L42" t="n">
         <v>2.33</v>
@@ -10993,10 +11137,10 @@
         <v>3.06</v>
       </c>
       <c r="O42" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="P42" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="Q42" t="n">
         <v>12.0</v>
@@ -11044,16 +11188,16 @@
         <v>24.0</v>
       </c>
       <c r="AF42" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="AG42" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH42" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AI42" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AJ42" t="n">
         <v>11.0</v>
@@ -11062,10 +11206,10 @@
         <v>1.0</v>
       </c>
       <c r="AL42" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="AM42" t="s">
-        <v>308</v>
+        <v>352</v>
       </c>
       <c r="AN42" t="n">
         <v>3.0</v>
@@ -11196,16 +11340,16 @@
         <v>120</v>
       </c>
       <c r="B43" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C43" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D43" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="E43" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="F43" t="n">
         <v>1.0</v>
@@ -11214,7 +11358,7 @@
         <v>2.0</v>
       </c>
       <c r="H43" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="I43" t="n">
         <v>0.0</v>
@@ -11223,7 +11367,7 @@
         <v>0.0</v>
       </c>
       <c r="K43" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="L43" t="n">
         <v>1.49</v>
@@ -11235,10 +11379,10 @@
         <v>5.72</v>
       </c>
       <c r="O43" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="P43" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="Q43" t="n">
         <v>33.0</v>
@@ -11286,16 +11430,16 @@
         <v>23.0</v>
       </c>
       <c r="AF43" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AG43" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH43" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AI43" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AJ43" t="n">
         <v>7.0</v>
@@ -11304,10 +11448,10 @@
         <v>0.0</v>
       </c>
       <c r="AL43" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="AM43" t="s">
-        <v>309</v>
+        <v>353</v>
       </c>
       <c r="AN43" t="n">
         <v>3.0</v>
@@ -11438,16 +11582,16 @@
         <v>121</v>
       </c>
       <c r="B44" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C44" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D44" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="E44" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="F44" t="n">
         <v>0.0</v>
@@ -11456,7 +11600,7 @@
         <v>0.0</v>
       </c>
       <c r="H44" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="I44" t="n">
         <v>0.0</v>
@@ -11465,7 +11609,7 @@
         <v>0.0</v>
       </c>
       <c r="K44" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="L44" t="n">
         <v>1.9</v>
@@ -11477,10 +11621,10 @@
         <v>3.61</v>
       </c>
       <c r="O44" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="P44" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="Q44" t="n">
         <v>10.0</v>
@@ -11528,16 +11672,16 @@
         <v>23.0</v>
       </c>
       <c r="AF44" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="AG44" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AH44" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AI44" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AJ44" t="n">
         <v>4.0</v>
@@ -11546,10 +11690,10 @@
         <v>0.0</v>
       </c>
       <c r="AL44" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="AM44" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="AN44" t="n">
         <v>0.0</v>
@@ -11680,16 +11824,16 @@
         <v>122</v>
       </c>
       <c r="B45" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C45" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D45" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="E45" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="F45" t="n">
         <v>5.0</v>
@@ -11698,7 +11842,7 @@
         <v>0.0</v>
       </c>
       <c r="H45" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="I45" t="n">
         <v>2.0</v>
@@ -11707,7 +11851,7 @@
         <v>0.0</v>
       </c>
       <c r="K45" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="L45" t="n">
         <v>1.3</v>
@@ -11719,10 +11863,10 @@
         <v>8.81</v>
       </c>
       <c r="O45" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="P45" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="Q45" t="n">
         <v>16.0</v>
@@ -11770,16 +11914,16 @@
         <v>23.0</v>
       </c>
       <c r="AF45" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="AG45" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH45" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AI45" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AJ45" t="n">
         <v>9.0</v>
@@ -11788,10 +11932,10 @@
         <v>0.0</v>
       </c>
       <c r="AL45" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="AM45" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="AN45" t="n">
         <v>5.0</v>
@@ -11922,16 +12066,16 @@
         <v>123</v>
       </c>
       <c r="B46" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C46" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D46" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="E46" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="F46" t="n">
         <v>0.0</v>
@@ -11940,7 +12084,7 @@
         <v>2.0</v>
       </c>
       <c r="H46" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="I46" t="n">
         <v>0.0</v>
@@ -11949,7 +12093,7 @@
         <v>1.0</v>
       </c>
       <c r="K46" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="L46" t="n">
         <v>2.53</v>
@@ -11961,10 +12105,10 @@
         <v>2.61</v>
       </c>
       <c r="O46" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="P46" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="Q46" t="n">
         <v>12.0</v>
@@ -12012,16 +12156,16 @@
         <v>27.0</v>
       </c>
       <c r="AF46" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="AG46" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH46" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AI46" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AJ46" t="n">
         <v>7.0</v>
@@ -12030,10 +12174,10 @@
         <v>0.0</v>
       </c>
       <c r="AL46" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="AM46" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="AN46" t="n">
         <v>2.0</v>
@@ -12164,16 +12308,16 @@
         <v>124</v>
       </c>
       <c r="B47" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C47" t="n" s="2">
         <v>45555.0</v>
       </c>
       <c r="D47" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="E47" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="F47" t="n">
         <v>2.0</v>
@@ -12182,7 +12326,7 @@
         <v>1.0</v>
       </c>
       <c r="H47" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="I47" t="n">
         <v>1.0</v>
@@ -12191,7 +12335,7 @@
         <v>1.0</v>
       </c>
       <c r="K47" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="L47" t="n">
         <v>2.21</v>
@@ -12203,10 +12347,10 @@
         <v>3.21</v>
       </c>
       <c r="O47" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="P47" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="Q47" t="n">
         <v>14.0</v>
@@ -12254,16 +12398,16 @@
         <v>26.0</v>
       </c>
       <c r="AF47" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="AG47" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH47" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AI47" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AJ47" t="n">
         <v>4.0</v>
@@ -12272,10 +12416,10 @@
         <v>0.0</v>
       </c>
       <c r="AL47" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="AM47" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="AN47" t="n">
         <v>3.0</v>
@@ -12406,16 +12550,16 @@
         <v>125</v>
       </c>
       <c r="B48" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C48" t="n" s="2">
         <v>45555.0</v>
       </c>
       <c r="D48" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="E48" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F48" t="n">
         <v>3.0</v>
@@ -12424,7 +12568,7 @@
         <v>5.0</v>
       </c>
       <c r="H48" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="I48" t="n">
         <v>3.0</v>
@@ -12433,7 +12577,7 @@
         <v>1.0</v>
       </c>
       <c r="K48" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="L48" t="n">
         <v>1.96</v>
@@ -12445,10 +12589,10 @@
         <v>3.84</v>
       </c>
       <c r="O48" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="P48" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="Q48" t="n">
         <v>18.0</v>
@@ -12496,16 +12640,16 @@
         <v>27.0</v>
       </c>
       <c r="AF48" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="AG48" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH48" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AI48" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AJ48" t="n">
         <v>11.0</v>
@@ -12514,19 +12658,19 @@
         <v>0.0</v>
       </c>
       <c r="AL48" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="AM48" t="s">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="AN48" t="n">
         <v>8.0</v>
       </c>
       <c r="AO48" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="AQ48" t="n">
         <v>452.0</v>
@@ -12648,16 +12792,16 @@
         <v>126</v>
       </c>
       <c r="B49" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C49" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D49" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="E49" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="F49" t="n">
         <v>2.0</v>
@@ -12666,7 +12810,7 @@
         <v>0.0</v>
       </c>
       <c r="H49" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="I49" t="n">
         <v>1.0</v>
@@ -12675,7 +12819,7 @@
         <v>0.0</v>
       </c>
       <c r="K49" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="L49" t="n">
         <v>2.93</v>
@@ -12687,10 +12831,10 @@
         <v>2.38</v>
       </c>
       <c r="O49" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="P49" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="Q49" t="n">
         <v>20.0</v>
@@ -12738,16 +12882,16 @@
         <v>31.0</v>
       </c>
       <c r="AF49" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="AG49" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH49" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AI49" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AJ49" t="n">
         <v>9.0</v>
@@ -12756,10 +12900,10 @@
         <v>0.0</v>
       </c>
       <c r="AL49" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="AM49" t="s">
-        <v>312</v>
+        <v>356</v>
       </c>
       <c r="AN49" t="n">
         <v>2.0</v>
@@ -12890,16 +13034,16 @@
         <v>127</v>
       </c>
       <c r="B50" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C50" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D50" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="E50" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="F50" t="n">
         <v>2.0</v>
@@ -12908,7 +13052,7 @@
         <v>2.0</v>
       </c>
       <c r="H50" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="I50" t="n">
         <v>1.0</v>
@@ -12917,7 +13061,7 @@
         <v>1.0</v>
       </c>
       <c r="K50" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="L50" t="n">
         <v>3.04</v>
@@ -12929,10 +13073,10 @@
         <v>2.3</v>
       </c>
       <c r="O50" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="P50" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="Q50" t="n">
         <v>9.0</v>
@@ -12980,16 +13124,16 @@
         <v>20.0</v>
       </c>
       <c r="AF50" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="AG50" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH50" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AI50" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AJ50" t="n">
         <v>4.0</v>
@@ -12998,10 +13142,10 @@
         <v>0.0</v>
       </c>
       <c r="AL50" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="AM50" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="AN50" t="n">
         <v>4.0</v>
@@ -13132,16 +13276,16 @@
         <v>128</v>
       </c>
       <c r="B51" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C51" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D51" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="E51" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="F51" t="n">
         <v>0.0</v>
@@ -13150,7 +13294,7 @@
         <v>2.0</v>
       </c>
       <c r="H51" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="I51" t="n">
         <v>0.0</v>
@@ -13159,7 +13303,7 @@
         <v>1.0</v>
       </c>
       <c r="K51" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="L51" t="n">
         <v>3.21</v>
@@ -13171,10 +13315,10 @@
         <v>2.17</v>
       </c>
       <c r="O51" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="P51" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="Q51" t="n">
         <v>7.0</v>
@@ -13222,16 +13366,16 @@
         <v>33.0</v>
       </c>
       <c r="AF51" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="AG51" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH51" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AI51" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AJ51" t="n">
         <v>5.0</v>
@@ -13240,10 +13384,10 @@
         <v>0.0</v>
       </c>
       <c r="AL51" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="AM51" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="AN51" t="n">
         <v>2.0</v>
@@ -13374,16 +13518,16 @@
         <v>129</v>
       </c>
       <c r="B52" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C52" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D52" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="E52" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="F52" t="n">
         <v>2.0</v>
@@ -13392,7 +13536,7 @@
         <v>2.0</v>
       </c>
       <c r="H52" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="I52" t="n">
         <v>1.0</v>
@@ -13401,7 +13545,7 @@
         <v>0.0</v>
       </c>
       <c r="K52" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="L52" t="n">
         <v>3.12</v>
@@ -13413,10 +13557,10 @@
         <v>2.14</v>
       </c>
       <c r="O52" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="P52" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="Q52" t="n">
         <v>10.0</v>
@@ -13464,16 +13608,16 @@
         <v>22.0</v>
       </c>
       <c r="AF52" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="AG52" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH52" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AI52" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AJ52" t="n">
         <v>5.0</v>
@@ -13482,10 +13626,10 @@
         <v>0.0</v>
       </c>
       <c r="AL52" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="AM52" t="s">
-        <v>314</v>
+        <v>358</v>
       </c>
       <c r="AN52" t="n">
         <v>4.0</v>
@@ -13616,16 +13760,16 @@
         <v>130</v>
       </c>
       <c r="B53" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C53" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D53" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="E53" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="F53" t="n">
         <v>1.0</v>
@@ -13634,7 +13778,7 @@
         <v>3.0</v>
       </c>
       <c r="H53" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="I53" t="n">
         <v>0.0</v>
@@ -13643,7 +13787,7 @@
         <v>1.0</v>
       </c>
       <c r="K53" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="L53" t="n">
         <v>1.88</v>
@@ -13655,10 +13799,10 @@
         <v>3.94</v>
       </c>
       <c r="O53" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="P53" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="Q53" t="n">
         <v>19.0</v>
@@ -13706,16 +13850,16 @@
         <v>22.0</v>
       </c>
       <c r="AF53" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="AG53" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH53" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AI53" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AJ53" t="n">
         <v>5.0</v>
@@ -13724,10 +13868,10 @@
         <v>0.0</v>
       </c>
       <c r="AL53" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="AM53" t="s">
-        <v>315</v>
+        <v>359</v>
       </c>
       <c r="AN53" t="n">
         <v>4.0</v>
@@ -13858,16 +14002,16 @@
         <v>131</v>
       </c>
       <c r="B54" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C54" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D54" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="E54" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="F54" t="n">
         <v>2.0</v>
@@ -13876,7 +14020,7 @@
         <v>2.0</v>
       </c>
       <c r="H54" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="I54" t="n">
         <v>1.0</v>
@@ -13885,7 +14029,7 @@
         <v>2.0</v>
       </c>
       <c r="K54" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="L54" t="n">
         <v>2.8</v>
@@ -13897,10 +14041,10 @@
         <v>2.4</v>
       </c>
       <c r="O54" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="P54" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="Q54" t="n">
         <v>13.0</v>
@@ -13948,16 +14092,16 @@
         <v>18.0</v>
       </c>
       <c r="AF54" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="AG54" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH54" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AI54" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AJ54" t="n">
         <v>6.0</v>
@@ -13966,10 +14110,10 @@
         <v>0.0</v>
       </c>
       <c r="AL54" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="AM54" t="s">
-        <v>316</v>
+        <v>360</v>
       </c>
       <c r="AN54" t="n">
         <v>4.0</v>
@@ -14100,16 +14244,16 @@
         <v>132</v>
       </c>
       <c r="B55" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C55" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D55" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="E55" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="F55" t="n">
         <v>0.0</v>
@@ -14118,7 +14262,7 @@
         <v>3.0</v>
       </c>
       <c r="H55" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="I55" t="n">
         <v>0.0</v>
@@ -14127,7 +14271,7 @@
         <v>1.0</v>
       </c>
       <c r="K55" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="L55" t="n">
         <v>2.33</v>
@@ -14139,10 +14283,10 @@
         <v>3.05</v>
       </c>
       <c r="O55" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="P55" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="Q55" t="n">
         <v>20.0</v>
@@ -14190,16 +14334,16 @@
         <v>36.0</v>
       </c>
       <c r="AF55" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="AG55" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH55" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AI55" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AJ55" t="n">
         <v>4.0</v>
@@ -14208,10 +14352,10 @@
         <v>0.0</v>
       </c>
       <c r="AL55" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="AM55" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="AN55" t="n">
         <v>3.0</v>
@@ -14342,16 +14486,16 @@
         <v>133</v>
       </c>
       <c r="B56" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C56" t="n" s="2">
         <v>45562.0</v>
       </c>
       <c r="D56" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="E56" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="F56" t="n">
         <v>1.0</v>
@@ -14360,7 +14504,7 @@
         <v>2.0</v>
       </c>
       <c r="H56" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="I56" t="n">
         <v>1.0</v>
@@ -14369,7 +14513,7 @@
         <v>1.0</v>
       </c>
       <c r="K56" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="L56" t="n">
         <v>3.12</v>
@@ -14381,10 +14525,10 @@
         <v>2.27</v>
       </c>
       <c r="O56" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="P56" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="Q56" t="n">
         <v>15.0</v>
@@ -14432,16 +14576,16 @@
         <v>25.0</v>
       </c>
       <c r="AF56" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="AG56" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH56" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AI56" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AJ56" t="n">
         <v>2.0</v>
@@ -14450,10 +14594,10 @@
         <v>0.0</v>
       </c>
       <c r="AL56" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="AM56" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="AN56" t="n">
         <v>3.0</v>
@@ -14584,16 +14728,16 @@
         <v>134</v>
       </c>
       <c r="B57" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C57" t="n" s="2">
         <v>45562.0</v>
       </c>
       <c r="D57" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="E57" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="F57" t="n">
         <v>3.0</v>
@@ -14602,7 +14746,7 @@
         <v>1.0</v>
       </c>
       <c r="H57" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="I57" t="n">
         <v>2.0</v>
@@ -14611,7 +14755,7 @@
         <v>0.0</v>
       </c>
       <c r="K57" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="L57" t="n">
         <v>2.47</v>
@@ -14623,10 +14767,10 @@
         <v>2.98</v>
       </c>
       <c r="O57" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="P57" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="Q57" t="n">
         <v>18.0</v>
@@ -14674,16 +14818,16 @@
         <v>26.0</v>
       </c>
       <c r="AF57" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="AG57" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH57" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AI57" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AJ57" t="n">
         <v>7.0</v>
@@ -14692,10 +14836,10 @@
         <v>1.0</v>
       </c>
       <c r="AL57" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="AM57" t="s">
-        <v>309</v>
+        <v>353</v>
       </c>
       <c r="AN57" t="n">
         <v>4.0</v>
@@ -14826,16 +14970,16 @@
         <v>135</v>
       </c>
       <c r="B58" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C58" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D58" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="E58" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="F58" t="n">
         <v>1.0</v>
@@ -14844,7 +14988,7 @@
         <v>2.0</v>
       </c>
       <c r="H58" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="I58" t="n">
         <v>1.0</v>
@@ -14853,7 +14997,7 @@
         <v>1.0</v>
       </c>
       <c r="K58" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="L58" t="n">
         <v>2.23</v>
@@ -14865,10 +15009,10 @@
         <v>3.01</v>
       </c>
       <c r="O58" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="P58" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="Q58" t="n">
         <v>17.0</v>
@@ -14916,16 +15060,16 @@
         <v>28.0</v>
       </c>
       <c r="AF58" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="AG58" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH58" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AI58" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AJ58" t="n">
         <v>9.0</v>
@@ -14934,10 +15078,10 @@
         <v>1.0</v>
       </c>
       <c r="AL58" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="AM58" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="AN58" t="n">
         <v>3.0</v>
@@ -15068,16 +15212,16 @@
         <v>136</v>
       </c>
       <c r="B59" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C59" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D59" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="E59" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="F59" t="n">
         <v>2.0</v>
@@ -15086,7 +15230,7 @@
         <v>2.0</v>
       </c>
       <c r="H59" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="I59" t="n">
         <v>0.0</v>
@@ -15095,7 +15239,7 @@
         <v>0.0</v>
       </c>
       <c r="K59" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="L59" t="n">
         <v>1.77</v>
@@ -15107,10 +15251,10 @@
         <v>4.05</v>
       </c>
       <c r="O59" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="P59" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="Q59" t="n">
         <v>17.0</v>
@@ -15158,16 +15302,16 @@
         <v>30.0</v>
       </c>
       <c r="AF59" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="AG59" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH59" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AI59" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AJ59" t="n">
         <v>6.0</v>
@@ -15176,10 +15320,10 @@
         <v>0.0</v>
       </c>
       <c r="AL59" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="AM59" t="s">
-        <v>318</v>
+        <v>362</v>
       </c>
       <c r="AN59" t="n">
         <v>4.0</v>
@@ -15310,16 +15454,16 @@
         <v>137</v>
       </c>
       <c r="B60" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C60" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D60" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="E60" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="F60" t="n">
         <v>0.0</v>
@@ -15328,7 +15472,7 @@
         <v>0.0</v>
       </c>
       <c r="H60" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="I60" t="n">
         <v>0.0</v>
@@ -15337,7 +15481,7 @@
         <v>0.0</v>
       </c>
       <c r="K60" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="L60" t="n">
         <v>3.31</v>
@@ -15349,10 +15493,10 @@
         <v>2.18</v>
       </c>
       <c r="O60" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="P60" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="Q60" t="n">
         <v>7.0</v>
@@ -15400,16 +15544,16 @@
         <v>23.0</v>
       </c>
       <c r="AF60" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="AG60" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AH60" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AI60" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AJ60" t="n">
         <v>6.0</v>
@@ -15418,10 +15562,10 @@
         <v>0.0</v>
       </c>
       <c r="AL60" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="AM60" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="AN60" t="n">
         <v>0.0</v>
@@ -15552,16 +15696,16 @@
         <v>138</v>
       </c>
       <c r="B61" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C61" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D61" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="E61" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="F61" t="n">
         <v>1.0</v>
@@ -15570,7 +15714,7 @@
         <v>2.0</v>
       </c>
       <c r="H61" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="I61" t="n">
         <v>0.0</v>
@@ -15579,7 +15723,7 @@
         <v>0.0</v>
       </c>
       <c r="K61" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="L61" t="n">
         <v>2.83</v>
@@ -15591,10 +15735,10 @@
         <v>2.31</v>
       </c>
       <c r="O61" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="P61" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="Q61" t="n">
         <v>19.0</v>
@@ -15642,16 +15786,16 @@
         <v>20.0</v>
       </c>
       <c r="AF61" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="AG61" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH61" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AI61" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AJ61" t="n">
         <v>6.0</v>
@@ -15660,10 +15804,10 @@
         <v>0.0</v>
       </c>
       <c r="AL61" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="AM61" t="s">
-        <v>319</v>
+        <v>363</v>
       </c>
       <c r="AN61" t="n">
         <v>3.0</v>
@@ -15794,16 +15938,16 @@
         <v>139</v>
       </c>
       <c r="B62" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C62" t="n" s="2">
         <v>45564.0</v>
       </c>
       <c r="D62" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="E62" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="F62" t="n">
         <v>4.0</v>
@@ -15812,7 +15956,7 @@
         <v>4.0</v>
       </c>
       <c r="H62" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="I62" t="n">
         <v>4.0</v>
@@ -15821,7 +15965,7 @@
         <v>2.0</v>
       </c>
       <c r="K62" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="L62" t="n">
         <v>1.57</v>
@@ -15833,10 +15977,10 @@
         <v>5.15</v>
       </c>
       <c r="O62" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="P62" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="Q62" t="n">
         <v>16.0</v>
@@ -15884,16 +16028,16 @@
         <v>17.0</v>
       </c>
       <c r="AF62" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="AG62" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH62" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AI62" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AJ62" t="n">
         <v>3.0</v>
@@ -15902,10 +16046,10 @@
         <v>0.0</v>
       </c>
       <c r="AL62" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="AM62" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="AN62" t="n">
         <v>8.0</v>
@@ -16036,16 +16180,16 @@
         <v>140</v>
       </c>
       <c r="B63" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C63" t="n" s="2">
         <v>45564.0</v>
       </c>
       <c r="D63" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="E63" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="F63" t="n">
         <v>2.0</v>
@@ -16054,7 +16198,7 @@
         <v>0.0</v>
       </c>
       <c r="H63" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="I63" t="n">
         <v>0.0</v>
@@ -16063,7 +16207,7 @@
         <v>0.0</v>
       </c>
       <c r="K63" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="L63" t="n">
         <v>1.55</v>
@@ -16075,10 +16219,10 @@
         <v>5.49</v>
       </c>
       <c r="O63" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="P63" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="Q63" t="n">
         <v>13.0</v>
@@ -16126,16 +16270,16 @@
         <v>32.0</v>
       </c>
       <c r="AF63" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="AG63" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH63" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AI63" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AJ63" t="n">
         <v>4.0</v>
@@ -16144,10 +16288,10 @@
         <v>0.0</v>
       </c>
       <c r="AL63" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="AM63" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="AN63" t="n">
         <v>2.0</v>
@@ -16278,16 +16422,16 @@
         <v>141</v>
       </c>
       <c r="B64" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C64" t="n" s="2">
         <v>45564.0</v>
       </c>
       <c r="D64" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="E64" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="F64" t="n">
         <v>1.0</v>
@@ -16296,7 +16440,7 @@
         <v>4.0</v>
       </c>
       <c r="H64" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="I64" t="n">
         <v>0.0</v>
@@ -16305,7 +16449,7 @@
         <v>2.0</v>
       </c>
       <c r="K64" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="L64" t="n">
         <v>1.78</v>
@@ -16317,10 +16461,10 @@
         <v>4.03</v>
       </c>
       <c r="O64" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="P64" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="Q64" t="n">
         <v>11.0</v>
@@ -16368,16 +16512,16 @@
         <v>24.0</v>
       </c>
       <c r="AF64" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="AG64" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AH64" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AI64" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="AJ64" t="n">
         <v>8.0</v>
@@ -16386,10 +16530,10 @@
         <v>0.0</v>
       </c>
       <c r="AL64" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="AM64" t="s">
-        <v>320</v>
+        <v>364</v>
       </c>
       <c r="AN64" t="n">
         <v>5.0</v>
@@ -16513,6 +16657,4362 @@
       </c>
       <c r="CB64" t="n">
         <v>177.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>142</v>
+      </c>
+      <c r="B65" t="s">
+        <v>160</v>
+      </c>
+      <c r="C65" t="n" s="2">
+        <v>45569.0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>164</v>
+      </c>
+      <c r="E65" t="s">
+        <v>167</v>
+      </c>
+      <c r="F65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H65" t="s">
+        <v>181</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K65" t="s">
+        <v>180</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="N65" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="O65" t="s">
+        <v>187</v>
+      </c>
+      <c r="P65" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S65" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="V65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>247</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>255</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>255</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>255</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL65" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM65" t="s">
+        <v>346</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>259.0</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>2331.0</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>2700.0</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL65" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BM65" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BN65" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO65" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BP65" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="BQ65" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="BR65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS65" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="BT65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="BV65" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="BW65" t="n">
+        <v>315.0</v>
+      </c>
+      <c r="BX65" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BY65" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="BZ65" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CA65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB65" t="n">
+        <v>142.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>143</v>
+      </c>
+      <c r="B66" t="s">
+        <v>160</v>
+      </c>
+      <c r="C66" t="n" s="2">
+        <v>45569.0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>177</v>
+      </c>
+      <c r="E66" t="s">
+        <v>171</v>
+      </c>
+      <c r="F66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H66" t="s">
+        <v>180</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K66" t="s">
+        <v>180</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="N66" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="O66" t="s">
+        <v>189</v>
+      </c>
+      <c r="P66" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>248</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>255</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>255</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>256</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL66" t="s">
+        <v>321</v>
+      </c>
+      <c r="AM66" t="s">
+        <v>339</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>750.0</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>2400.0</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>2250.0</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BL66" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BM66" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BN66" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BO66" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BP66" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="BQ66" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="BR66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS66" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="BT66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="BV66" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="BW66" t="n">
+        <v>318.0</v>
+      </c>
+      <c r="BX66" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BY66" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="BZ66" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="CA66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CB66" t="n">
+        <v>125.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>144</v>
+      </c>
+      <c r="B67" t="s">
+        <v>160</v>
+      </c>
+      <c r="C67" t="n" s="2">
+        <v>45570.0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>172</v>
+      </c>
+      <c r="E67" t="s">
+        <v>170</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H67" t="s">
+        <v>180</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K67" t="s">
+        <v>181</v>
+      </c>
+      <c r="L67" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="N67" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="O67" t="s">
+        <v>186</v>
+      </c>
+      <c r="P67" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG67" t="s">
+        <v>256</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>256</v>
+      </c>
+      <c r="AI67" t="s">
+        <v>256</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL67" t="s">
+        <v>322</v>
+      </c>
+      <c r="AM67" t="s">
+        <v>356</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>550.0</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>726.0</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>550.0</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BL67" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BM67" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BN67" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO67" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BP67" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="BQ67" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="BR67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS67" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="BT67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="BV67" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="BW67" t="n">
+        <v>231.0</v>
+      </c>
+      <c r="BX67" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="BY67" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="BZ67" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="CA67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB67" t="n">
+        <v>73.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>145</v>
+      </c>
+      <c r="B68" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68" t="n" s="2">
+        <v>45570.0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>161</v>
+      </c>
+      <c r="E68" t="s">
+        <v>169</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H68" t="s">
+        <v>180</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K68" t="s">
+        <v>180</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M68" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="N68" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="O68" t="s">
+        <v>189</v>
+      </c>
+      <c r="P68" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U68" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="V68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>218</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>255</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>256</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>256</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL68" t="s">
+        <v>323</v>
+      </c>
+      <c r="AM68" t="s">
+        <v>360</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>1400.0</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>825.0</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>605.0</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>1650.0</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BL68" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="BM68" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BN68" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO68" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BP68" t="n">
+        <v>1350.0</v>
+      </c>
+      <c r="BQ68" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="BR68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS68" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="BT68" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="BV68" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="BW68" t="n">
+        <v>329.0</v>
+      </c>
+      <c r="BX68" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BY68" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="BZ68" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="CA68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB68" t="n">
+        <v>103.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>146</v>
+      </c>
+      <c r="B69" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" t="n" s="2">
+        <v>45570.0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>174</v>
+      </c>
+      <c r="E69" t="s">
+        <v>178</v>
+      </c>
+      <c r="F69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H69" t="s">
+        <v>180</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K69" t="s">
+        <v>179</v>
+      </c>
+      <c r="L69" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="N69" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="O69" t="s">
+        <v>185</v>
+      </c>
+      <c r="P69" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>210</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>255</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>255</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>255</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL69" t="s">
+        <v>324</v>
+      </c>
+      <c r="AM69" t="s">
+        <v>351</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>197.0</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM69" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BN69" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BO69" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BP69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ69" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="BR69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS69" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="BT69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="BV69" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="BW69" t="n">
+        <v>314.0</v>
+      </c>
+      <c r="BX69" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="BY69" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="BZ69" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="CA69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB69" t="n">
+        <v>125.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>147</v>
+      </c>
+      <c r="B70" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70" t="n" s="2">
+        <v>45570.0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>166</v>
+      </c>
+      <c r="E70" t="s">
+        <v>163</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H70" t="s">
+        <v>181</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K70" t="s">
+        <v>180</v>
+      </c>
+      <c r="L70" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="N70" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="O70" t="s">
+        <v>187</v>
+      </c>
+      <c r="P70" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="T70" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U70" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="V70" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>234</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>255</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>255</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>255</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL70" t="s">
+        <v>325</v>
+      </c>
+      <c r="AM70" t="s">
+        <v>345</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>1600.0</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>640.0</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>1104.0</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BL70" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BM70" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BN70" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BO70" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BP70" t="n">
+        <v>1500.0</v>
+      </c>
+      <c r="BQ70" t="n">
+        <v>280.0</v>
+      </c>
+      <c r="BR70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS70" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="BT70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>280.0</v>
+      </c>
+      <c r="BV70" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="BW70" t="n">
+        <v>432.0</v>
+      </c>
+      <c r="BX70" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="BY70" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BZ70" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CA70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CB70" t="n">
+        <v>134.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>148</v>
+      </c>
+      <c r="B71" t="s">
+        <v>160</v>
+      </c>
+      <c r="C71" t="n" s="2">
+        <v>45571.0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>176</v>
+      </c>
+      <c r="E71" t="s">
+        <v>162</v>
+      </c>
+      <c r="F71" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H71" t="s">
+        <v>180</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K71" t="s">
+        <v>180</v>
+      </c>
+      <c r="L71" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N71" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="O71" t="s">
+        <v>189</v>
+      </c>
+      <c r="P71" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="T71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U71" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V71" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>249</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>255</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>256</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>256</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>326</v>
+      </c>
+      <c r="AM71" t="s">
+        <v>365</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>840.0</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>1582.0</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>1680.0</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BL71" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BM71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN71" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BO71" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BP71" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="BQ71" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="BR71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS71" t="n">
+        <v>292.0</v>
+      </c>
+      <c r="BT71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="BV71" t="n">
+        <v>292.0</v>
+      </c>
+      <c r="BW71" t="n">
+        <v>348.0</v>
+      </c>
+      <c r="BX71" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BY71" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="BZ71" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CA71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CB71" t="n">
+        <v>112.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72" t="s">
+        <v>160</v>
+      </c>
+      <c r="C72" t="n" s="2">
+        <v>45571.0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>173</v>
+      </c>
+      <c r="E72" t="s">
+        <v>175</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H72" t="s">
+        <v>179</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K72" t="s">
+        <v>179</v>
+      </c>
+      <c r="L72" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="N72" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="O72" t="s">
+        <v>184</v>
+      </c>
+      <c r="P72" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S72" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="T72" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U72" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V72" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>233</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>255</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>255</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>256</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL72" t="s">
+        <v>327</v>
+      </c>
+      <c r="AM72" t="s">
+        <v>366</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>845.0</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>2353.0</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>2535.0</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BL72" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BM72" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BN72" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO72" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="BP72" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="BQ72" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="BR72" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="BS72" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="BT72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>282.0</v>
+      </c>
+      <c r="BV72" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="BW72" t="n">
+        <v>392.0</v>
+      </c>
+      <c r="BX72" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BY72" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="BZ72" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="CA72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CB72" t="n">
+        <v>129.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>150</v>
+      </c>
+      <c r="B73" t="s">
+        <v>160</v>
+      </c>
+      <c r="C73" t="n" s="2">
+        <v>45571.0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>165</v>
+      </c>
+      <c r="E73" t="s">
+        <v>168</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H73" t="s">
+        <v>181</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K73" t="s">
+        <v>180</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="N73" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O73" t="s">
+        <v>187</v>
+      </c>
+      <c r="P73" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="T73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>250</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>255</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>255</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>255</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>328</v>
+      </c>
+      <c r="AM73" t="s">
+        <v>367</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>1968.0</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>1440.0</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM73" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BN73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO73" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BP73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ73" t="n">
+        <v>229.0</v>
+      </c>
+      <c r="BR73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>229.0</v>
+      </c>
+      <c r="BV73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW73" t="n">
+        <v>229.0</v>
+      </c>
+      <c r="BX73" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="BY73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ73" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="CA73" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CB73" t="n">
+        <v>131.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>151</v>
+      </c>
+      <c r="B74" t="s">
+        <v>160</v>
+      </c>
+      <c r="C74" t="n" s="2">
+        <v>45583.0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>167</v>
+      </c>
+      <c r="E74" t="s">
+        <v>161</v>
+      </c>
+      <c r="F74" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H74" t="s">
+        <v>180</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K74" t="s">
+        <v>180</v>
+      </c>
+      <c r="L74" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="O74" t="s">
+        <v>187</v>
+      </c>
+      <c r="P74" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S74" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="T74" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U74" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V74" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>247</v>
+      </c>
+      <c r="AG74" t="s">
+        <v>255</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>255</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>255</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL74" t="s">
+        <v>329</v>
+      </c>
+      <c r="AM74" t="s">
+        <v>368</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>302.0</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>2718.0</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>2700.0</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL74" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BM74" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BN74" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BO74" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BP74" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="BQ74" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="BR74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS74" t="n">
+        <v>231.0</v>
+      </c>
+      <c r="BT74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="BV74" t="n">
+        <v>231.0</v>
+      </c>
+      <c r="BW74" t="n">
+        <v>362.0</v>
+      </c>
+      <c r="BX74" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="BY74" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="BZ74" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="CA74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB74" t="n">
+        <v>142.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>152</v>
+      </c>
+      <c r="B75" t="s">
+        <v>160</v>
+      </c>
+      <c r="C75" t="n" s="2">
+        <v>45583.0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>163</v>
+      </c>
+      <c r="E75" t="s">
+        <v>176</v>
+      </c>
+      <c r="F75" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H75" t="s">
+        <v>180</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K75" t="s">
+        <v>179</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="N75" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O75" t="s">
+        <v>184</v>
+      </c>
+      <c r="P75" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="R75" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T75" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U75" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="V75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG75" t="s">
+        <v>255</v>
+      </c>
+      <c r="AH75" t="s">
+        <v>255</v>
+      </c>
+      <c r="AI75" t="s">
+        <v>255</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL75" t="s">
+        <v>330</v>
+      </c>
+      <c r="AM75" t="s">
+        <v>363</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>247.0</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>1400.0</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>2964.0</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BL75" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BM75" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BN75" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BO75" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="BP75" t="n">
+        <v>1350.0</v>
+      </c>
+      <c r="BQ75" t="n">
+        <v>190.0</v>
+      </c>
+      <c r="BR75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS75" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="BT75" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>190.0</v>
+      </c>
+      <c r="BV75" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="BW75" t="n">
+        <v>335.0</v>
+      </c>
+      <c r="BX75" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="BY75" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="BZ75" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="CA75" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CB75" t="n">
+        <v>156.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" t="s">
+        <v>160</v>
+      </c>
+      <c r="C76" t="n" s="2">
+        <v>45584.0</v>
+      </c>
+      <c r="D76" t="s">
+        <v>162</v>
+      </c>
+      <c r="E76" t="s">
+        <v>166</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H76" t="s">
+        <v>180</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K76" t="s">
+        <v>180</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="N76" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O76" t="s">
+        <v>189</v>
+      </c>
+      <c r="P76" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S76" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="T76" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V76" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>256</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>256</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>256</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL76" t="s">
+        <v>331</v>
+      </c>
+      <c r="AM76" t="s">
+        <v>354</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN76" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BO76" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BP76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS76" t="n">
+        <v>285.0</v>
+      </c>
+      <c r="BT76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV76" t="n">
+        <v>285.0</v>
+      </c>
+      <c r="BW76" t="n">
+        <v>285.0</v>
+      </c>
+      <c r="BX76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY76" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="BZ76" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="CA76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB76" t="n">
+        <v>62.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" t="s">
+        <v>160</v>
+      </c>
+      <c r="C77" t="n" s="2">
+        <v>45584.0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>178</v>
+      </c>
+      <c r="E77" t="s">
+        <v>172</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H77" t="s">
+        <v>181</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K77" t="s">
+        <v>180</v>
+      </c>
+      <c r="L77" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="N77" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="O77" t="s">
+        <v>189</v>
+      </c>
+      <c r="P77" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S77" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="T77" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U77" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="V77" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG77" t="s">
+        <v>255</v>
+      </c>
+      <c r="AH77" t="s">
+        <v>256</v>
+      </c>
+      <c r="AI77" t="s">
+        <v>256</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL77" t="s">
+        <v>332</v>
+      </c>
+      <c r="AM77" t="s">
+        <v>352</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>660.0</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>1144.0</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>1320.0</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL77" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BM77" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BN77" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BO77" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BP77" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="BQ77" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="BR77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS77" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="BT77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="BV77" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="BW77" t="n">
+        <v>255.0</v>
+      </c>
+      <c r="BX77" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="BY77" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="BZ77" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="CA77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB77" t="n">
+        <v>93.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>155</v>
+      </c>
+      <c r="B78" t="s">
+        <v>160</v>
+      </c>
+      <c r="C78" t="n" s="2">
+        <v>45584.0</v>
+      </c>
+      <c r="D78" t="s">
+        <v>171</v>
+      </c>
+      <c r="E78" t="s">
+        <v>173</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H78" t="s">
+        <v>179</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K78" t="s">
+        <v>179</v>
+      </c>
+      <c r="L78" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="N78" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O78" t="s">
+        <v>184</v>
+      </c>
+      <c r="P78" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S78" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="T78" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U78" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="V78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W78" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AF78" t="s">
+        <v>239</v>
+      </c>
+      <c r="AG78" t="s">
+        <v>255</v>
+      </c>
+      <c r="AH78" t="s">
+        <v>255</v>
+      </c>
+      <c r="AI78" t="s">
+        <v>256</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AL78" t="s">
+        <v>333</v>
+      </c>
+      <c r="AM78" t="s">
+        <v>339</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>214.0</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>2568.0</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BL78" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BM78" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="BN78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO78" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="BP78" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="BQ78" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="BR78" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="BS78" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="BT78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>376.0</v>
+      </c>
+      <c r="BV78" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="BW78" t="n">
+        <v>419.0</v>
+      </c>
+      <c r="BX78" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="BY78" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="BZ78" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="CA78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CB78" t="n">
+        <v>146.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" t="n" s="2">
+        <v>45584.0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>170</v>
+      </c>
+      <c r="E79" t="s">
+        <v>177</v>
+      </c>
+      <c r="F79" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H79" t="s">
+        <v>180</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K79" t="s">
+        <v>180</v>
+      </c>
+      <c r="L79" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N79" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="O79" t="s">
+        <v>189</v>
+      </c>
+      <c r="P79" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="R79" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="S79" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="T79" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U79" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V79" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="AF79" t="s">
+        <v>252</v>
+      </c>
+      <c r="AG79" t="s">
+        <v>255</v>
+      </c>
+      <c r="AH79" t="s">
+        <v>255</v>
+      </c>
+      <c r="AI79" t="s">
+        <v>256</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL79" t="s">
+        <v>334</v>
+      </c>
+      <c r="AM79" t="s">
+        <v>353</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>207.0</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>1650.0</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>255.0</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>850.0</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>2070.0</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>2550.0</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BL79" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BM79" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BN79" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO79" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BP79" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="BQ79" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="BR79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS79" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="BT79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="BV79" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="BW79" t="n">
+        <v>268.0</v>
+      </c>
+      <c r="BX79" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BY79" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="BZ79" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="CA79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB79" t="n">
+        <v>120.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" t="s">
+        <v>160</v>
+      </c>
+      <c r="C80" t="n" s="2">
+        <v>45585.0</v>
+      </c>
+      <c r="D80" t="s">
+        <v>168</v>
+      </c>
+      <c r="E80" t="s">
+        <v>174</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H80" t="s">
+        <v>179</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K80" t="s">
+        <v>179</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="O80" t="s">
+        <v>193</v>
+      </c>
+      <c r="P80" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S80" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="T80" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="U80" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V80" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AF80" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG80" t="s">
+        <v>255</v>
+      </c>
+      <c r="AH80" t="s">
+        <v>255</v>
+      </c>
+      <c r="AI80" t="s">
+        <v>255</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL80" t="s">
+        <v>335</v>
+      </c>
+      <c r="AM80" t="s">
+        <v>358</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>912.0</v>
+      </c>
+      <c r="BA80" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL80" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BM80" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BN80" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BO80" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BP80" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="BQ80" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="BR80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS80" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="BT80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="BV80" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="BW80" t="n">
+        <v>275.0</v>
+      </c>
+      <c r="BX80" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="BY80" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="BZ80" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="CA80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB80" t="n">
+        <v>103.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>158</v>
+      </c>
+      <c r="B81" t="s">
+        <v>160</v>
+      </c>
+      <c r="C81" t="n" s="2">
+        <v>45585.0</v>
+      </c>
+      <c r="D81" t="s">
+        <v>175</v>
+      </c>
+      <c r="E81" t="s">
+        <v>165</v>
+      </c>
+      <c r="F81" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H81" t="s">
+        <v>180</v>
+      </c>
+      <c r="I81" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K81" t="s">
+        <v>180</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="N81" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="O81" t="s">
+        <v>190</v>
+      </c>
+      <c r="P81" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S81" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="T81" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U81" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V81" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AF81" t="s">
+        <v>253</v>
+      </c>
+      <c r="AG81" t="s">
+        <v>255</v>
+      </c>
+      <c r="AH81" t="s">
+        <v>255</v>
+      </c>
+      <c r="AI81" t="s">
+        <v>255</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL81" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM81" t="s">
+        <v>347</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>260.0</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>715.0</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>1716.0</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>2860.0</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BL81" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BM81" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="BN81" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO81" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="BP81" t="n">
+        <v>550.0</v>
+      </c>
+      <c r="BQ81" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="BR81" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="BS81" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="BT81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>247.0</v>
+      </c>
+      <c r="BV81" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="BW81" t="n">
+        <v>322.0</v>
+      </c>
+      <c r="BX81" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="BY81" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="BZ81" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="CA81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CB81" t="n">
+        <v>138.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>159</v>
+      </c>
+      <c r="B82" t="s">
+        <v>160</v>
+      </c>
+      <c r="C82" t="n" s="2">
+        <v>45585.0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>169</v>
+      </c>
+      <c r="E82" t="s">
+        <v>164</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H82" t="s">
+        <v>179</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K82" t="s">
+        <v>181</v>
+      </c>
+      <c r="L82" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="N82" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O82" t="s">
+        <v>186</v>
+      </c>
+      <c r="P82" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S82" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="T82" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U82" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V82" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AF82" t="s">
+        <v>254</v>
+      </c>
+      <c r="AG82" t="s">
+        <v>256</v>
+      </c>
+      <c r="AH82" t="s">
+        <v>256</v>
+      </c>
+      <c r="AI82" t="s">
+        <v>256</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL82" t="s">
+        <v>337</v>
+      </c>
+      <c r="AM82" t="s">
+        <v>355</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>1020.0</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>1598.0</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>1020.0</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BL82" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BM82" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BN82" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BO82" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BP82" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="BQ82" t="n">
+        <v>274.0</v>
+      </c>
+      <c r="BR82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS82" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="BT82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>274.0</v>
+      </c>
+      <c r="BV82" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="BW82" t="n">
+        <v>475.0</v>
+      </c>
+      <c r="BX82" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="BY82" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="BZ82" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="CA82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB82" t="n">
+        <v>96.0</v>
       </c>
     </row>
   </sheetData>
